--- a/PDA_formative_assessment/afs_loan.xlsx
+++ b/PDA_formative_assessment/afs_loan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="20">
   <si>
     <t>Gender</t>
   </si>
@@ -68,15 +68,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Semiurban</t>
-  </si>
-  <si>
-    <t>Rural</t>
   </si>
   <si>
     <t>N</t>
@@ -521,11 +512,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -562,11 +553,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
+      <c r="L3">
+        <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -603,11 +594,11 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -644,11 +635,11 @@
       <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -685,11 +676,11 @@
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
+      <c r="L6">
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -726,11 +717,11 @@
       <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
-        <v>19</v>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -767,11 +758,11 @@
       <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
+      <c r="L8">
+        <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -808,11 +799,11 @@
       <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -849,11 +840,11 @@
       <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" t="s">
-        <v>19</v>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -890,11 +881,11 @@
       <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
-        <v>18</v>
+      <c r="L11">
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -931,11 +922,11 @@
       <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" t="s">
-        <v>19</v>
+      <c r="L12">
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -972,11 +963,11 @@
       <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1013,11 +1004,11 @@
       <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" t="s">
-        <v>18</v>
+      <c r="L14">
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1054,11 +1045,11 @@
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" t="s">
-        <v>18</v>
+      <c r="L15">
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1095,11 +1086,11 @@
       <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="L16" t="s">
-        <v>19</v>
+      <c r="L16">
+        <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1136,11 +1127,11 @@
       <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
-        <v>18</v>
+      <c r="L17">
+        <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1177,11 +1168,11 @@
       <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="s">
-        <v>18</v>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1218,11 +1209,11 @@
       <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L19" t="s">
-        <v>18</v>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1259,11 +1250,11 @@
       <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="L20" t="s">
-        <v>18</v>
+      <c r="L20">
+        <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1300,11 +1291,11 @@
       <c r="K21" t="s">
         <v>16</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>18</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1341,11 +1332,11 @@
       <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="L22" t="s">
-        <v>19</v>
+      <c r="L22">
+        <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1382,11 +1373,11 @@
       <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="L23" t="s">
-        <v>19</v>
+      <c r="L23">
+        <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1423,11 +1414,11 @@
       <c r="K24" t="s">
         <v>17</v>
       </c>
-      <c r="L24" t="s">
-        <v>19</v>
+      <c r="L24">
+        <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1464,11 +1455,11 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
-      <c r="L25" t="s">
-        <v>19</v>
+      <c r="L25">
+        <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1505,11 +1496,11 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1546,11 +1537,11 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-      <c r="L27" t="s">
-        <v>19</v>
+      <c r="L27">
+        <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1587,11 +1578,11 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
-      <c r="L28" t="s">
-        <v>19</v>
+      <c r="L28">
+        <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1628,11 +1619,11 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="L29" t="s">
-        <v>20</v>
+      <c r="L29">
+        <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1669,11 +1660,11 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-      <c r="L30" t="s">
-        <v>18</v>
+      <c r="L30">
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1710,11 +1701,11 @@
       <c r="K31" t="s">
         <v>17</v>
       </c>
-      <c r="L31" t="s">
-        <v>18</v>
+      <c r="L31">
+        <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1751,11 +1742,11 @@
       <c r="K32" t="s">
         <v>17</v>
       </c>
-      <c r="L32" t="s">
-        <v>18</v>
+      <c r="L32">
+        <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1792,11 +1783,11 @@
       <c r="K33" t="s">
         <v>17</v>
       </c>
-      <c r="L33" t="s">
-        <v>18</v>
+      <c r="L33">
+        <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1833,11 +1824,11 @@
       <c r="K34" t="s">
         <v>16</v>
       </c>
-      <c r="L34" t="s">
-        <v>20</v>
+      <c r="L34">
+        <v>3</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1874,11 +1865,11 @@
       <c r="K35" t="s">
         <v>16</v>
       </c>
-      <c r="L35" t="s">
-        <v>20</v>
+      <c r="L35">
+        <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1915,11 +1906,11 @@
       <c r="K36" t="s">
         <v>16</v>
       </c>
-      <c r="L36" t="s">
-        <v>19</v>
+      <c r="L36">
+        <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1956,11 +1947,11 @@
       <c r="K37" t="s">
         <v>16</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
         <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1997,11 +1988,11 @@
       <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L38" t="s">
-        <v>18</v>
+      <c r="L38">
+        <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2038,11 +2029,11 @@
       <c r="K39" t="s">
         <v>16</v>
       </c>
-      <c r="L39" t="s">
-        <v>19</v>
+      <c r="L39">
+        <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2079,11 +2070,11 @@
       <c r="K40" t="s">
         <v>17</v>
       </c>
-      <c r="L40" t="s">
-        <v>18</v>
+      <c r="L40">
+        <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2120,11 +2111,11 @@
       <c r="K41" t="s">
         <v>17</v>
       </c>
-      <c r="L41" t="s">
-        <v>19</v>
+      <c r="L41">
+        <v>2</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2161,11 +2152,11 @@
       <c r="K42" t="s">
         <v>17</v>
       </c>
-      <c r="L42" t="s">
-        <v>19</v>
+      <c r="L42">
+        <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2202,11 +2193,11 @@
       <c r="K43" t="s">
         <v>16</v>
       </c>
-      <c r="L43" t="s">
-        <v>19</v>
+      <c r="L43">
+        <v>2</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2243,11 +2234,11 @@
       <c r="K44" t="s">
         <v>17</v>
       </c>
-      <c r="L44" t="s">
-        <v>19</v>
+      <c r="L44">
+        <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2284,11 +2275,11 @@
       <c r="K45" t="s">
         <v>17</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>18</v>
-      </c>
-      <c r="M45" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2325,11 +2316,11 @@
       <c r="K46" t="s">
         <v>17</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>18</v>
-      </c>
-      <c r="M46" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2366,11 +2357,11 @@
       <c r="K47" t="s">
         <v>17</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
         <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2407,11 +2398,11 @@
       <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="L48" t="s">
-        <v>19</v>
+      <c r="L48">
+        <v>2</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2448,11 +2439,11 @@
       <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="L49" t="s">
-        <v>19</v>
+      <c r="L49">
+        <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2489,11 +2480,11 @@
       <c r="K50" t="s">
         <v>17</v>
       </c>
-      <c r="L50" t="s">
-        <v>19</v>
+      <c r="L50">
+        <v>2</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2530,11 +2521,11 @@
       <c r="K51" t="s">
         <v>17</v>
       </c>
-      <c r="L51" t="s">
-        <v>19</v>
+      <c r="L51">
+        <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2571,11 +2562,11 @@
       <c r="K52" t="s">
         <v>17</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>18</v>
-      </c>
-      <c r="M52" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2612,11 +2603,11 @@
       <c r="K53" t="s">
         <v>17</v>
       </c>
-      <c r="L53" t="s">
-        <v>18</v>
+      <c r="L53">
+        <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2653,11 +2644,11 @@
       <c r="K54" t="s">
         <v>17</v>
       </c>
-      <c r="L54" t="s">
-        <v>19</v>
+      <c r="L54">
+        <v>2</v>
       </c>
       <c r="M54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2694,11 +2685,11 @@
       <c r="K55" t="s">
         <v>16</v>
       </c>
-      <c r="L55" t="s">
-        <v>19</v>
+      <c r="L55">
+        <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2735,11 +2726,11 @@
       <c r="K56" t="s">
         <v>17</v>
       </c>
-      <c r="L56" t="s">
-        <v>19</v>
+      <c r="L56">
+        <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2776,11 +2767,11 @@
       <c r="K57" t="s">
         <v>17</v>
       </c>
-      <c r="L57" t="s">
-        <v>18</v>
+      <c r="L57">
+        <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2817,11 +2808,11 @@
       <c r="K58" t="s">
         <v>17</v>
       </c>
-      <c r="L58" t="s">
-        <v>19</v>
+      <c r="L58">
+        <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2858,11 +2849,11 @@
       <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L59" t="s">
-        <v>19</v>
+      <c r="L59">
+        <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2899,11 +2890,11 @@
       <c r="K60" t="s">
         <v>17</v>
       </c>
-      <c r="L60" t="s">
-        <v>19</v>
+      <c r="L60">
+        <v>2</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2940,11 +2931,11 @@
       <c r="K61" t="s">
         <v>17</v>
       </c>
-      <c r="L61" t="s">
-        <v>18</v>
+      <c r="L61">
+        <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2981,11 +2972,11 @@
       <c r="K62" t="s">
         <v>17</v>
       </c>
-      <c r="L62" t="s">
-        <v>19</v>
+      <c r="L62">
+        <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3022,11 +3013,11 @@
       <c r="K63" t="s">
         <v>17</v>
       </c>
-      <c r="L63" t="s">
-        <v>19</v>
+      <c r="L63">
+        <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3063,11 +3054,11 @@
       <c r="K64" t="s">
         <v>16</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
         <v>18</v>
-      </c>
-      <c r="M64" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3104,11 +3095,11 @@
       <c r="K65" t="s">
         <v>17</v>
       </c>
-      <c r="L65" t="s">
-        <v>19</v>
+      <c r="L65">
+        <v>2</v>
       </c>
       <c r="M65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3145,11 +3136,11 @@
       <c r="K66" t="s">
         <v>17</v>
       </c>
-      <c r="L66" t="s">
-        <v>19</v>
+      <c r="L66">
+        <v>2</v>
       </c>
       <c r="M66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3186,11 +3177,11 @@
       <c r="K67" t="s">
         <v>17</v>
       </c>
-      <c r="L67" t="s">
-        <v>19</v>
+      <c r="L67">
+        <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3227,11 +3218,11 @@
       <c r="K68" t="s">
         <v>17</v>
       </c>
-      <c r="L68" t="s">
-        <v>19</v>
+      <c r="L68">
+        <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3268,11 +3259,11 @@
       <c r="K69" t="s">
         <v>17</v>
       </c>
-      <c r="L69" t="s">
-        <v>18</v>
+      <c r="L69">
+        <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3309,11 +3300,11 @@
       <c r="K70" t="s">
         <v>17</v>
       </c>
-      <c r="L70" t="s">
-        <v>19</v>
+      <c r="L70">
+        <v>2</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3350,11 +3341,11 @@
       <c r="K71" t="s">
         <v>17</v>
       </c>
-      <c r="L71" t="s">
-        <v>19</v>
+      <c r="L71">
+        <v>2</v>
       </c>
       <c r="M71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3391,11 +3382,11 @@
       <c r="K72" t="s">
         <v>17</v>
       </c>
-      <c r="L72" t="s">
-        <v>18</v>
+      <c r="L72">
+        <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3432,11 +3423,11 @@
       <c r="K73" t="s">
         <v>17</v>
       </c>
-      <c r="L73" t="s">
-        <v>18</v>
+      <c r="L73">
+        <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3473,11 +3464,11 @@
       <c r="K74" t="s">
         <v>17</v>
       </c>
-      <c r="L74" t="s">
-        <v>20</v>
+      <c r="L74">
+        <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3514,11 +3505,11 @@
       <c r="K75" t="s">
         <v>16</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
         <v>18</v>
-      </c>
-      <c r="M75" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3555,11 +3546,11 @@
       <c r="K76" t="s">
         <v>17</v>
       </c>
-      <c r="L76" t="s">
-        <v>19</v>
+      <c r="L76">
+        <v>2</v>
       </c>
       <c r="M76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3596,11 +3587,11 @@
       <c r="K77" t="s">
         <v>17</v>
       </c>
-      <c r="L77" t="s">
-        <v>18</v>
+      <c r="L77">
+        <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3637,11 +3628,11 @@
       <c r="K78" t="s">
         <v>17</v>
       </c>
-      <c r="L78" t="s">
-        <v>19</v>
+      <c r="L78">
+        <v>2</v>
       </c>
       <c r="M78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3678,11 +3669,11 @@
       <c r="K79" t="s">
         <v>16</v>
       </c>
-      <c r="L79" t="s">
-        <v>20</v>
+      <c r="L79">
+        <v>3</v>
       </c>
       <c r="M79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3719,11 +3710,11 @@
       <c r="K80" t="s">
         <v>17</v>
       </c>
-      <c r="L80" t="s">
-        <v>19</v>
+      <c r="L80">
+        <v>2</v>
       </c>
       <c r="M80" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3760,11 +3751,11 @@
       <c r="K81" t="s">
         <v>17</v>
       </c>
-      <c r="L81" t="s">
-        <v>19</v>
+      <c r="L81">
+        <v>2</v>
       </c>
       <c r="M81" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3801,11 +3792,11 @@
       <c r="K82" t="s">
         <v>17</v>
       </c>
-      <c r="L82" t="s">
-        <v>19</v>
+      <c r="L82">
+        <v>2</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3842,11 +3833,11 @@
       <c r="K83" t="s">
         <v>16</v>
       </c>
-      <c r="L83" t="s">
-        <v>18</v>
+      <c r="L83">
+        <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3883,11 +3874,11 @@
       <c r="K84" t="s">
         <v>17</v>
       </c>
-      <c r="L84" t="s">
-        <v>20</v>
+      <c r="L84">
+        <v>3</v>
       </c>
       <c r="M84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3924,11 +3915,11 @@
       <c r="K85" t="s">
         <v>17</v>
       </c>
-      <c r="L85" t="s">
-        <v>20</v>
+      <c r="L85">
+        <v>3</v>
       </c>
       <c r="M85" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3965,11 +3956,11 @@
       <c r="K86" t="s">
         <v>17</v>
       </c>
-      <c r="L86" t="s">
-        <v>19</v>
+      <c r="L86">
+        <v>2</v>
       </c>
       <c r="M86" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4006,11 +3997,11 @@
       <c r="K87" t="s">
         <v>16</v>
       </c>
-      <c r="L87" t="s">
-        <v>19</v>
+      <c r="L87">
+        <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4047,11 +4038,11 @@
       <c r="K88" t="s">
         <v>17</v>
       </c>
-      <c r="L88" t="s">
-        <v>19</v>
+      <c r="L88">
+        <v>2</v>
       </c>
       <c r="M88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4088,11 +4079,11 @@
       <c r="K89" t="s">
         <v>17</v>
       </c>
-      <c r="L89" t="s">
-        <v>20</v>
+      <c r="L89">
+        <v>3</v>
       </c>
       <c r="M89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4129,11 +4120,11 @@
       <c r="K90" t="s">
         <v>16</v>
       </c>
-      <c r="L90" t="s">
-        <v>20</v>
+      <c r="L90">
+        <v>3</v>
       </c>
       <c r="M90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4170,11 +4161,11 @@
       <c r="K91" t="s">
         <v>17</v>
       </c>
-      <c r="L91" t="s">
-        <v>20</v>
+      <c r="L91">
+        <v>3</v>
       </c>
       <c r="M91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4211,11 +4202,11 @@
       <c r="K92" t="s">
         <v>16</v>
       </c>
-      <c r="L92" t="s">
-        <v>20</v>
+      <c r="L92">
+        <v>3</v>
       </c>
       <c r="M92" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4252,11 +4243,11 @@
       <c r="K93" t="s">
         <v>17</v>
       </c>
-      <c r="L93" t="s">
-        <v>18</v>
+      <c r="L93">
+        <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4293,11 +4284,11 @@
       <c r="K94" t="s">
         <v>17</v>
       </c>
-      <c r="L94" t="s">
-        <v>19</v>
+      <c r="L94">
+        <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4334,11 +4325,11 @@
       <c r="K95" t="s">
         <v>17</v>
       </c>
-      <c r="L95" t="s">
-        <v>19</v>
+      <c r="L95">
+        <v>2</v>
       </c>
       <c r="M95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4375,11 +4366,11 @@
       <c r="K96" t="s">
         <v>17</v>
       </c>
-      <c r="L96" t="s">
-        <v>19</v>
+      <c r="L96">
+        <v>2</v>
       </c>
       <c r="M96" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4416,11 +4407,11 @@
       <c r="K97" t="s">
         <v>17</v>
       </c>
-      <c r="L97" t="s">
-        <v>20</v>
+      <c r="L97">
+        <v>3</v>
       </c>
       <c r="M97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4457,11 +4448,11 @@
       <c r="K98" t="s">
         <v>17</v>
       </c>
-      <c r="L98" t="s">
-        <v>18</v>
+      <c r="L98">
+        <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4498,11 +4489,11 @@
       <c r="K99" t="s">
         <v>17</v>
       </c>
-      <c r="L99" t="s">
-        <v>20</v>
+      <c r="L99">
+        <v>3</v>
       </c>
       <c r="M99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4539,11 +4530,11 @@
       <c r="K100" t="s">
         <v>17</v>
       </c>
-      <c r="L100" t="s">
-        <v>20</v>
+      <c r="L100">
+        <v>3</v>
       </c>
       <c r="M100" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4580,11 +4571,11 @@
       <c r="K101" t="s">
         <v>17</v>
       </c>
-      <c r="L101" t="s">
-        <v>18</v>
+      <c r="L101">
+        <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4621,11 +4612,11 @@
       <c r="K102" t="s">
         <v>17</v>
       </c>
-      <c r="L102" t="s">
-        <v>19</v>
+      <c r="L102">
+        <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4662,11 +4653,11 @@
       <c r="K103" t="s">
         <v>17</v>
       </c>
-      <c r="L103" t="s">
-        <v>19</v>
+      <c r="L103">
+        <v>2</v>
       </c>
       <c r="M103" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4703,11 +4694,11 @@
       <c r="K104" t="s">
         <v>17</v>
       </c>
-      <c r="L104" t="s">
-        <v>19</v>
+      <c r="L104">
+        <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4744,11 +4735,11 @@
       <c r="K105" t="s">
         <v>17</v>
       </c>
-      <c r="L105" t="s">
-        <v>18</v>
+      <c r="L105">
+        <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4785,11 +4776,11 @@
       <c r="K106" t="s">
         <v>17</v>
       </c>
-      <c r="L106" t="s">
-        <v>20</v>
+      <c r="L106">
+        <v>3</v>
       </c>
       <c r="M106" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4826,11 +4817,11 @@
       <c r="K107" t="s">
         <v>17</v>
       </c>
-      <c r="L107" t="s">
-        <v>19</v>
+      <c r="L107">
+        <v>2</v>
       </c>
       <c r="M107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4867,11 +4858,11 @@
       <c r="K108" t="s">
         <v>16</v>
       </c>
-      <c r="L108" t="s">
-        <v>20</v>
+      <c r="L108">
+        <v>3</v>
       </c>
       <c r="M108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4908,11 +4899,11 @@
       <c r="K109" t="s">
         <v>17</v>
       </c>
-      <c r="L109" t="s">
-        <v>20</v>
+      <c r="L109">
+        <v>3</v>
       </c>
       <c r="M109" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4949,11 +4940,11 @@
       <c r="K110" t="s">
         <v>17</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
         <v>18</v>
-      </c>
-      <c r="M110" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4990,11 +4981,11 @@
       <c r="K111" t="s">
         <v>17</v>
       </c>
-      <c r="L111" t="s">
-        <v>20</v>
+      <c r="L111">
+        <v>3</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5031,11 +5022,11 @@
       <c r="K112" t="s">
         <v>17</v>
       </c>
-      <c r="L112" t="s">
-        <v>18</v>
+      <c r="L112">
+        <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5072,11 +5063,11 @@
       <c r="K113" t="s">
         <v>16</v>
       </c>
-      <c r="L113" t="s">
-        <v>20</v>
+      <c r="L113">
+        <v>3</v>
       </c>
       <c r="M113" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5113,11 +5104,11 @@
       <c r="K114" t="s">
         <v>17</v>
       </c>
-      <c r="L114" t="s">
-        <v>18</v>
+      <c r="L114">
+        <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5154,11 +5145,11 @@
       <c r="K115" t="s">
         <v>17</v>
       </c>
-      <c r="L115" t="s">
-        <v>20</v>
+      <c r="L115">
+        <v>3</v>
       </c>
       <c r="M115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5195,11 +5186,11 @@
       <c r="K116" t="s">
         <v>17</v>
       </c>
-      <c r="L116" t="s">
-        <v>19</v>
+      <c r="L116">
+        <v>2</v>
       </c>
       <c r="M116" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5236,11 +5227,11 @@
       <c r="K117" t="s">
         <v>16</v>
       </c>
-      <c r="L117" t="s">
-        <v>19</v>
+      <c r="L117">
+        <v>2</v>
       </c>
       <c r="M117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5277,11 +5268,11 @@
       <c r="K118" t="s">
         <v>17</v>
       </c>
-      <c r="L118" t="s">
-        <v>20</v>
+      <c r="L118">
+        <v>3</v>
       </c>
       <c r="M118" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5318,11 +5309,11 @@
       <c r="K119" t="s">
         <v>17</v>
       </c>
-      <c r="L119" t="s">
-        <v>18</v>
+      <c r="L119">
+        <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5359,11 +5350,11 @@
       <c r="K120" t="s">
         <v>17</v>
       </c>
-      <c r="L120" t="s">
-        <v>20</v>
+      <c r="L120">
+        <v>3</v>
       </c>
       <c r="M120" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5400,11 +5391,11 @@
       <c r="K121" t="s">
         <v>17</v>
       </c>
-      <c r="L121" t="s">
-        <v>20</v>
+      <c r="L121">
+        <v>3</v>
       </c>
       <c r="M121" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5441,11 +5432,11 @@
       <c r="K122" t="s">
         <v>17</v>
       </c>
-      <c r="L122" t="s">
-        <v>20</v>
+      <c r="L122">
+        <v>3</v>
       </c>
       <c r="M122" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5482,11 +5473,11 @@
       <c r="K123" t="s">
         <v>16</v>
       </c>
-      <c r="L123" t="s">
-        <v>19</v>
+      <c r="L123">
+        <v>2</v>
       </c>
       <c r="M123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5523,11 +5514,11 @@
       <c r="K124" t="s">
         <v>17</v>
       </c>
-      <c r="L124" t="s">
-        <v>19</v>
+      <c r="L124">
+        <v>2</v>
       </c>
       <c r="M124" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5564,11 +5555,11 @@
       <c r="K125" t="s">
         <v>17</v>
       </c>
-      <c r="L125" t="s">
-        <v>20</v>
+      <c r="L125">
+        <v>3</v>
       </c>
       <c r="M125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5605,11 +5596,11 @@
       <c r="K126" t="s">
         <v>17</v>
       </c>
-      <c r="L126" t="s">
-        <v>20</v>
+      <c r="L126">
+        <v>3</v>
       </c>
       <c r="M126" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5646,11 +5637,11 @@
       <c r="K127" t="s">
         <v>17</v>
       </c>
-      <c r="L127" t="s">
-        <v>19</v>
+      <c r="L127">
+        <v>2</v>
       </c>
       <c r="M127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5687,11 +5678,11 @@
       <c r="K128" t="s">
         <v>17</v>
       </c>
-      <c r="L128" t="s">
-        <v>19</v>
+      <c r="L128">
+        <v>2</v>
       </c>
       <c r="M128" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5728,11 +5719,11 @@
       <c r="K129" t="s">
         <v>17</v>
       </c>
-      <c r="L129" t="s">
-        <v>20</v>
+      <c r="L129">
+        <v>3</v>
       </c>
       <c r="M129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5769,11 +5760,11 @@
       <c r="K130" t="s">
         <v>17</v>
       </c>
-      <c r="L130" t="s">
-        <v>20</v>
+      <c r="L130">
+        <v>3</v>
       </c>
       <c r="M130" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5810,11 +5801,11 @@
       <c r="K131" t="s">
         <v>17</v>
       </c>
-      <c r="L131" t="s">
-        <v>19</v>
+      <c r="L131">
+        <v>2</v>
       </c>
       <c r="M131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5851,11 +5842,11 @@
       <c r="K132" t="s">
         <v>16</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" t="s">
         <v>18</v>
-      </c>
-      <c r="M132" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5892,11 +5883,11 @@
       <c r="K133" t="s">
         <v>16</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" t="s">
         <v>18</v>
-      </c>
-      <c r="M133" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5933,11 +5924,11 @@
       <c r="K134" t="s">
         <v>16</v>
       </c>
-      <c r="L134" t="s">
-        <v>20</v>
+      <c r="L134">
+        <v>3</v>
       </c>
       <c r="M134" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5974,11 +5965,11 @@
       <c r="K135" t="s">
         <v>17</v>
       </c>
-      <c r="L135" t="s">
-        <v>19</v>
+      <c r="L135">
+        <v>2</v>
       </c>
       <c r="M135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6015,11 +6006,11 @@
       <c r="K136" t="s">
         <v>17</v>
       </c>
-      <c r="L136" t="s">
-        <v>19</v>
+      <c r="L136">
+        <v>2</v>
       </c>
       <c r="M136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6056,11 +6047,11 @@
       <c r="K137" t="s">
         <v>16</v>
       </c>
-      <c r="L137" t="s">
-        <v>20</v>
+      <c r="L137">
+        <v>3</v>
       </c>
       <c r="M137" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6097,11 +6088,11 @@
       <c r="K138" t="s">
         <v>16</v>
       </c>
-      <c r="L138" t="s">
-        <v>20</v>
+      <c r="L138">
+        <v>3</v>
       </c>
       <c r="M138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6138,11 +6129,11 @@
       <c r="K139" t="s">
         <v>17</v>
       </c>
-      <c r="L139" t="s">
-        <v>20</v>
+      <c r="L139">
+        <v>3</v>
       </c>
       <c r="M139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6179,11 +6170,11 @@
       <c r="K140" t="s">
         <v>17</v>
       </c>
-      <c r="L140" t="s">
-        <v>20</v>
+      <c r="L140">
+        <v>3</v>
       </c>
       <c r="M140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6220,11 +6211,11 @@
       <c r="K141" t="s">
         <v>17</v>
       </c>
-      <c r="L141" t="s">
-        <v>20</v>
+      <c r="L141">
+        <v>3</v>
       </c>
       <c r="M141" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6261,11 +6252,11 @@
       <c r="K142" t="s">
         <v>17</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" t="s">
         <v>18</v>
-      </c>
-      <c r="M142" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6302,11 +6293,11 @@
       <c r="K143" t="s">
         <v>17</v>
       </c>
-      <c r="L143" t="s">
-        <v>19</v>
+      <c r="L143">
+        <v>2</v>
       </c>
       <c r="M143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6343,11 +6334,11 @@
       <c r="K144" t="s">
         <v>17</v>
       </c>
-      <c r="L144" t="s">
-        <v>20</v>
+      <c r="L144">
+        <v>3</v>
       </c>
       <c r="M144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6384,11 +6375,11 @@
       <c r="K145" t="s">
         <v>17</v>
       </c>
-      <c r="L145" t="s">
-        <v>19</v>
+      <c r="L145">
+        <v>2</v>
       </c>
       <c r="M145" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6425,11 +6416,11 @@
       <c r="K146" t="s">
         <v>17</v>
       </c>
-      <c r="L146" t="s">
-        <v>20</v>
+      <c r="L146">
+        <v>3</v>
       </c>
       <c r="M146" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6466,11 +6457,11 @@
       <c r="K147" t="s">
         <v>17</v>
       </c>
-      <c r="L147" t="s">
-        <v>18</v>
+      <c r="L147">
+        <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6507,11 +6498,11 @@
       <c r="K148" t="s">
         <v>16</v>
       </c>
-      <c r="L148" t="s">
-        <v>19</v>
+      <c r="L148">
+        <v>2</v>
       </c>
       <c r="M148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6548,11 +6539,11 @@
       <c r="K149" t="s">
         <v>17</v>
       </c>
-      <c r="L149" t="s">
-        <v>19</v>
+      <c r="L149">
+        <v>2</v>
       </c>
       <c r="M149" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6589,11 +6580,11 @@
       <c r="K150" t="s">
         <v>16</v>
       </c>
-      <c r="L150" t="s">
-        <v>19</v>
+      <c r="L150">
+        <v>2</v>
       </c>
       <c r="M150" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6630,11 +6621,11 @@
       <c r="K151" t="s">
         <v>17</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" t="s">
         <v>18</v>
-      </c>
-      <c r="M151" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6671,11 +6662,11 @@
       <c r="K152" t="s">
         <v>17</v>
       </c>
-      <c r="L152" t="s">
-        <v>18</v>
+      <c r="L152">
+        <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6712,11 +6703,11 @@
       <c r="K153" t="s">
         <v>17</v>
       </c>
-      <c r="L153" t="s">
-        <v>19</v>
+      <c r="L153">
+        <v>2</v>
       </c>
       <c r="M153" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6753,11 +6744,11 @@
       <c r="K154" t="s">
         <v>17</v>
       </c>
-      <c r="L154" t="s">
-        <v>19</v>
+      <c r="L154">
+        <v>2</v>
       </c>
       <c r="M154" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6794,11 +6785,11 @@
       <c r="K155" t="s">
         <v>17</v>
       </c>
-      <c r="L155" t="s">
-        <v>18</v>
+      <c r="L155">
+        <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6835,11 +6826,11 @@
       <c r="K156" t="s">
         <v>17</v>
       </c>
-      <c r="L156" t="s">
-        <v>20</v>
+      <c r="L156">
+        <v>3</v>
       </c>
       <c r="M156" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6876,11 +6867,11 @@
       <c r="K157" t="s">
         <v>17</v>
       </c>
-      <c r="L157" t="s">
-        <v>18</v>
+      <c r="L157">
+        <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6917,11 +6908,11 @@
       <c r="K158" t="s">
         <v>17</v>
       </c>
-      <c r="L158" t="s">
-        <v>19</v>
+      <c r="L158">
+        <v>2</v>
       </c>
       <c r="M158" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6958,11 +6949,11 @@
       <c r="K159" t="s">
         <v>17</v>
       </c>
-      <c r="L159" t="s">
-        <v>19</v>
+      <c r="L159">
+        <v>2</v>
       </c>
       <c r="M159" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6999,11 +6990,11 @@
       <c r="K160" t="s">
         <v>16</v>
       </c>
-      <c r="L160" t="s">
-        <v>19</v>
+      <c r="L160">
+        <v>2</v>
       </c>
       <c r="M160" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7040,11 +7031,11 @@
       <c r="K161" t="s">
         <v>17</v>
       </c>
-      <c r="L161" t="s">
-        <v>18</v>
+      <c r="L161">
+        <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7081,11 +7072,11 @@
       <c r="K162" t="s">
         <v>17</v>
       </c>
-      <c r="L162" t="s">
-        <v>20</v>
+      <c r="L162">
+        <v>3</v>
       </c>
       <c r="M162" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7122,11 +7113,11 @@
       <c r="K163" t="s">
         <v>17</v>
       </c>
-      <c r="L163" t="s">
-        <v>18</v>
+      <c r="L163">
+        <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7163,11 +7154,11 @@
       <c r="K164" t="s">
         <v>17</v>
       </c>
-      <c r="L164" t="s">
-        <v>19</v>
+      <c r="L164">
+        <v>2</v>
       </c>
       <c r="M164" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7204,11 +7195,11 @@
       <c r="K165" t="s">
         <v>17</v>
       </c>
-      <c r="L165" t="s">
-        <v>20</v>
+      <c r="L165">
+        <v>3</v>
       </c>
       <c r="M165" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7245,11 +7236,11 @@
       <c r="K166" t="s">
         <v>17</v>
       </c>
-      <c r="L166" t="s">
-        <v>19</v>
+      <c r="L166">
+        <v>2</v>
       </c>
       <c r="M166" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7286,11 +7277,11 @@
       <c r="K167" t="s">
         <v>16</v>
       </c>
-      <c r="L167" t="s">
-        <v>19</v>
+      <c r="L167">
+        <v>2</v>
       </c>
       <c r="M167" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7327,11 +7318,11 @@
       <c r="K168" t="s">
         <v>16</v>
       </c>
-      <c r="L168" t="s">
-        <v>19</v>
+      <c r="L168">
+        <v>2</v>
       </c>
       <c r="M168" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7368,11 +7359,11 @@
       <c r="K169" t="s">
         <v>16</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
         <v>18</v>
-      </c>
-      <c r="M169" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7409,11 +7400,11 @@
       <c r="K170" t="s">
         <v>17</v>
       </c>
-      <c r="L170" t="s">
-        <v>19</v>
+      <c r="L170">
+        <v>2</v>
       </c>
       <c r="M170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7450,11 +7441,11 @@
       <c r="K171" t="s">
         <v>17</v>
       </c>
-      <c r="L171" t="s">
-        <v>19</v>
+      <c r="L171">
+        <v>2</v>
       </c>
       <c r="M171" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7491,11 +7482,11 @@
       <c r="K172" t="s">
         <v>17</v>
       </c>
-      <c r="L172" t="s">
-        <v>19</v>
+      <c r="L172">
+        <v>2</v>
       </c>
       <c r="M172" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7532,11 +7523,11 @@
       <c r="K173" t="s">
         <v>17</v>
       </c>
-      <c r="L173" t="s">
-        <v>19</v>
+      <c r="L173">
+        <v>2</v>
       </c>
       <c r="M173" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7573,11 +7564,11 @@
       <c r="K174" t="s">
         <v>17</v>
       </c>
-      <c r="L174" t="s">
-        <v>20</v>
+      <c r="L174">
+        <v>3</v>
       </c>
       <c r="M174" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7614,11 +7605,11 @@
       <c r="K175" t="s">
         <v>17</v>
       </c>
-      <c r="L175" t="s">
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
         <v>18</v>
-      </c>
-      <c r="M175" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7655,11 +7646,11 @@
       <c r="K176" t="s">
         <v>17</v>
       </c>
-      <c r="L176" t="s">
-        <v>19</v>
+      <c r="L176">
+        <v>2</v>
       </c>
       <c r="M176" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7696,11 +7687,11 @@
       <c r="K177" t="s">
         <v>17</v>
       </c>
-      <c r="L177" t="s">
-        <v>19</v>
+      <c r="L177">
+        <v>2</v>
       </c>
       <c r="M177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7737,11 +7728,11 @@
       <c r="K178" t="s">
         <v>17</v>
       </c>
-      <c r="L178" t="s">
-        <v>20</v>
+      <c r="L178">
+        <v>3</v>
       </c>
       <c r="M178" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7778,11 +7769,11 @@
       <c r="K179" t="s">
         <v>17</v>
       </c>
-      <c r="L179" t="s">
-        <v>19</v>
+      <c r="L179">
+        <v>2</v>
       </c>
       <c r="M179" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7819,11 +7810,11 @@
       <c r="K180" t="s">
         <v>17</v>
       </c>
-      <c r="L180" t="s">
-        <v>20</v>
+      <c r="L180">
+        <v>3</v>
       </c>
       <c r="M180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7860,11 +7851,11 @@
       <c r="K181" t="s">
         <v>17</v>
       </c>
-      <c r="L181" t="s">
-        <v>20</v>
+      <c r="L181">
+        <v>3</v>
       </c>
       <c r="M181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7901,11 +7892,11 @@
       <c r="K182" t="s">
         <v>17</v>
       </c>
-      <c r="L182" t="s">
-        <v>19</v>
+      <c r="L182">
+        <v>2</v>
       </c>
       <c r="M182" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7942,11 +7933,11 @@
       <c r="K183" t="s">
         <v>17</v>
       </c>
-      <c r="L183" t="s">
-        <v>20</v>
+      <c r="L183">
+        <v>3</v>
       </c>
       <c r="M183" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7983,11 +7974,11 @@
       <c r="K184" t="s">
         <v>16</v>
       </c>
-      <c r="L184" t="s">
-        <v>18</v>
+      <c r="L184">
+        <v>1</v>
       </c>
       <c r="M184" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8024,11 +8015,11 @@
       <c r="K185" t="s">
         <v>17</v>
       </c>
-      <c r="L185" t="s">
-        <v>20</v>
+      <c r="L185">
+        <v>3</v>
       </c>
       <c r="M185" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8065,11 +8056,11 @@
       <c r="K186" t="s">
         <v>17</v>
       </c>
-      <c r="L186" t="s">
-        <v>19</v>
+      <c r="L186">
+        <v>2</v>
       </c>
       <c r="M186" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8106,11 +8097,11 @@
       <c r="K187" t="s">
         <v>17</v>
       </c>
-      <c r="L187" t="s">
-        <v>20</v>
+      <c r="L187">
+        <v>3</v>
       </c>
       <c r="M187" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8147,11 +8138,11 @@
       <c r="K188" t="s">
         <v>17</v>
       </c>
-      <c r="L188" t="s">
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
         <v>18</v>
-      </c>
-      <c r="M188" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8188,11 +8179,11 @@
       <c r="K189" t="s">
         <v>17</v>
       </c>
-      <c r="L189" t="s">
-        <v>18</v>
+      <c r="L189">
+        <v>1</v>
       </c>
       <c r="M189" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8229,11 +8220,11 @@
       <c r="K190" t="s">
         <v>17</v>
       </c>
-      <c r="L190" t="s">
-        <v>20</v>
+      <c r="L190">
+        <v>3</v>
       </c>
       <c r="M190" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8270,11 +8261,11 @@
       <c r="K191" t="s">
         <v>17</v>
       </c>
-      <c r="L191" t="s">
-        <v>19</v>
+      <c r="L191">
+        <v>2</v>
       </c>
       <c r="M191" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8311,11 +8302,11 @@
       <c r="K192" t="s">
         <v>17</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192" t="s">
         <v>18</v>
-      </c>
-      <c r="M192" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8352,11 +8343,11 @@
       <c r="K193" t="s">
         <v>17</v>
       </c>
-      <c r="L193" t="s">
-        <v>18</v>
+      <c r="L193">
+        <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8393,11 +8384,11 @@
       <c r="K194" t="s">
         <v>17</v>
       </c>
-      <c r="L194" t="s">
-        <v>18</v>
+      <c r="L194">
+        <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8434,11 +8425,11 @@
       <c r="K195" t="s">
         <v>17</v>
       </c>
-      <c r="L195" t="s">
-        <v>19</v>
+      <c r="L195">
+        <v>2</v>
       </c>
       <c r="M195" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8475,11 +8466,11 @@
       <c r="K196" t="s">
         <v>17</v>
       </c>
-      <c r="L196" t="s">
-        <v>18</v>
+      <c r="L196">
+        <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8516,11 +8507,11 @@
       <c r="K197" t="s">
         <v>16</v>
       </c>
-      <c r="L197" t="s">
-        <v>19</v>
+      <c r="L197">
+        <v>2</v>
       </c>
       <c r="M197" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8557,11 +8548,11 @@
       <c r="K198" t="s">
         <v>17</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198" t="s">
         <v>18</v>
-      </c>
-      <c r="M198" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8598,11 +8589,11 @@
       <c r="K199" t="s">
         <v>17</v>
       </c>
-      <c r="L199" t="s">
-        <v>20</v>
+      <c r="L199">
+        <v>3</v>
       </c>
       <c r="M199" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8639,11 +8630,11 @@
       <c r="K200" t="s">
         <v>16</v>
       </c>
-      <c r="L200" t="s">
-        <v>20</v>
+      <c r="L200">
+        <v>3</v>
       </c>
       <c r="M200" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8680,11 +8671,11 @@
       <c r="K201" t="s">
         <v>17</v>
       </c>
-      <c r="L201" t="s">
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201" t="s">
         <v>18</v>
-      </c>
-      <c r="M201" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8721,11 +8712,11 @@
       <c r="K202" t="s">
         <v>16</v>
       </c>
-      <c r="L202" t="s">
-        <v>19</v>
+      <c r="L202">
+        <v>2</v>
       </c>
       <c r="M202" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8762,11 +8753,11 @@
       <c r="K203" t="s">
         <v>17</v>
       </c>
-      <c r="L203" t="s">
-        <v>19</v>
+      <c r="L203">
+        <v>2</v>
       </c>
       <c r="M203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8803,11 +8794,11 @@
       <c r="K204" t="s">
         <v>17</v>
       </c>
-      <c r="L204" t="s">
-        <v>19</v>
+      <c r="L204">
+        <v>2</v>
       </c>
       <c r="M204" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -8844,11 +8835,11 @@
       <c r="K205" t="s">
         <v>17</v>
       </c>
-      <c r="L205" t="s">
-        <v>20</v>
+      <c r="L205">
+        <v>3</v>
       </c>
       <c r="M205" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -8885,11 +8876,11 @@
       <c r="K206" t="s">
         <v>17</v>
       </c>
-      <c r="L206" t="s">
-        <v>19</v>
+      <c r="L206">
+        <v>2</v>
       </c>
       <c r="M206" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -8926,11 +8917,11 @@
       <c r="K207" t="s">
         <v>17</v>
       </c>
-      <c r="L207" t="s">
-        <v>20</v>
+      <c r="L207">
+        <v>3</v>
       </c>
       <c r="M207" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -8967,11 +8958,11 @@
       <c r="K208" t="s">
         <v>17</v>
       </c>
-      <c r="L208" t="s">
-        <v>19</v>
+      <c r="L208">
+        <v>2</v>
       </c>
       <c r="M208" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9008,11 +8999,11 @@
       <c r="K209" t="s">
         <v>16</v>
       </c>
-      <c r="L209" t="s">
-        <v>18</v>
+      <c r="L209">
+        <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9049,11 +9040,11 @@
       <c r="K210" t="s">
         <v>17</v>
       </c>
-      <c r="L210" t="s">
-        <v>20</v>
+      <c r="L210">
+        <v>3</v>
       </c>
       <c r="M210" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9090,11 +9081,11 @@
       <c r="K211" t="s">
         <v>17</v>
       </c>
-      <c r="L211" t="s">
-        <v>18</v>
+      <c r="L211">
+        <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9131,11 +9122,11 @@
       <c r="K212" t="s">
         <v>17</v>
       </c>
-      <c r="L212" t="s">
-        <v>18</v>
+      <c r="L212">
+        <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9172,11 +9163,11 @@
       <c r="K213" t="s">
         <v>17</v>
       </c>
-      <c r="L213" t="s">
-        <v>20</v>
+      <c r="L213">
+        <v>3</v>
       </c>
       <c r="M213" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9213,11 +9204,11 @@
       <c r="K214" t="s">
         <v>17</v>
       </c>
-      <c r="L214" t="s">
-        <v>19</v>
+      <c r="L214">
+        <v>2</v>
       </c>
       <c r="M214" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9254,11 +9245,11 @@
       <c r="K215" t="s">
         <v>17</v>
       </c>
-      <c r="L215" t="s">
-        <v>19</v>
+      <c r="L215">
+        <v>2</v>
       </c>
       <c r="M215" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9295,11 +9286,11 @@
       <c r="K216" t="s">
         <v>17</v>
       </c>
-      <c r="L216" t="s">
-        <v>19</v>
+      <c r="L216">
+        <v>2</v>
       </c>
       <c r="M216" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9336,11 +9327,11 @@
       <c r="K217" t="s">
         <v>17</v>
       </c>
-      <c r="L217" t="s">
-        <v>19</v>
+      <c r="L217">
+        <v>2</v>
       </c>
       <c r="M217" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9377,11 +9368,11 @@
       <c r="K218" t="s">
         <v>17</v>
       </c>
-      <c r="L218" t="s">
-        <v>19</v>
+      <c r="L218">
+        <v>2</v>
       </c>
       <c r="M218" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9418,11 +9409,11 @@
       <c r="K219" t="s">
         <v>17</v>
       </c>
-      <c r="L219" t="s">
-        <v>19</v>
+      <c r="L219">
+        <v>2</v>
       </c>
       <c r="M219" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9459,11 +9450,11 @@
       <c r="K220" t="s">
         <v>17</v>
       </c>
-      <c r="L220" t="s">
-        <v>18</v>
+      <c r="L220">
+        <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9500,11 +9491,11 @@
       <c r="K221" t="s">
         <v>17</v>
       </c>
-      <c r="L221" t="s">
-        <v>18</v>
+      <c r="L221">
+        <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9541,11 +9532,11 @@
       <c r="K222" t="s">
         <v>16</v>
       </c>
-      <c r="L222" t="s">
-        <v>20</v>
+      <c r="L222">
+        <v>3</v>
       </c>
       <c r="M222" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9582,11 +9573,11 @@
       <c r="K223" t="s">
         <v>16</v>
       </c>
-      <c r="L223" t="s">
-        <v>20</v>
+      <c r="L223">
+        <v>3</v>
       </c>
       <c r="M223" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9623,11 +9614,11 @@
       <c r="K224" t="s">
         <v>16</v>
       </c>
-      <c r="L224" t="s">
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
         <v>18</v>
-      </c>
-      <c r="M224" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9664,11 +9655,11 @@
       <c r="K225" t="s">
         <v>16</v>
       </c>
-      <c r="L225" t="s">
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225" t="s">
         <v>18</v>
-      </c>
-      <c r="M225" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9705,11 +9696,11 @@
       <c r="K226" t="s">
         <v>17</v>
       </c>
-      <c r="L226" t="s">
-        <v>19</v>
+      <c r="L226">
+        <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9746,11 +9737,11 @@
       <c r="K227" t="s">
         <v>17</v>
       </c>
-      <c r="L227" t="s">
-        <v>19</v>
+      <c r="L227">
+        <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9787,11 +9778,11 @@
       <c r="K228" t="s">
         <v>17</v>
       </c>
-      <c r="L228" t="s">
-        <v>18</v>
+      <c r="L228">
+        <v>1</v>
       </c>
       <c r="M228" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9828,11 +9819,11 @@
       <c r="K229" t="s">
         <v>17</v>
       </c>
-      <c r="L229" t="s">
-        <v>18</v>
+      <c r="L229">
+        <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9869,11 +9860,11 @@
       <c r="K230" t="s">
         <v>17</v>
       </c>
-      <c r="L230" t="s">
-        <v>18</v>
+      <c r="L230">
+        <v>1</v>
       </c>
       <c r="M230" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9910,11 +9901,11 @@
       <c r="K231" t="s">
         <v>17</v>
       </c>
-      <c r="L231" t="s">
-        <v>18</v>
+      <c r="L231">
+        <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9951,11 +9942,11 @@
       <c r="K232" t="s">
         <v>17</v>
       </c>
-      <c r="L232" t="s">
-        <v>20</v>
+      <c r="L232">
+        <v>3</v>
       </c>
       <c r="M232" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9992,11 +9983,11 @@
       <c r="K233" t="s">
         <v>17</v>
       </c>
-      <c r="L233" t="s">
-        <v>20</v>
+      <c r="L233">
+        <v>3</v>
       </c>
       <c r="M233" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10033,11 +10024,11 @@
       <c r="K234" t="s">
         <v>17</v>
       </c>
-      <c r="L234" t="s">
-        <v>19</v>
+      <c r="L234">
+        <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10074,11 +10065,11 @@
       <c r="K235" t="s">
         <v>17</v>
       </c>
-      <c r="L235" t="s">
-        <v>20</v>
+      <c r="L235">
+        <v>3</v>
       </c>
       <c r="M235" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10115,11 +10106,11 @@
       <c r="K236" t="s">
         <v>17</v>
       </c>
-      <c r="L236" t="s">
-        <v>20</v>
+      <c r="L236">
+        <v>3</v>
       </c>
       <c r="M236" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10156,11 +10147,11 @@
       <c r="K237" t="s">
         <v>17</v>
       </c>
-      <c r="L237" t="s">
-        <v>19</v>
+      <c r="L237">
+        <v>2</v>
       </c>
       <c r="M237" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10197,11 +10188,11 @@
       <c r="K238" t="s">
         <v>17</v>
       </c>
-      <c r="L238" t="s">
-        <v>19</v>
+      <c r="L238">
+        <v>2</v>
       </c>
       <c r="M238" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10238,11 +10229,11 @@
       <c r="K239" t="s">
         <v>17</v>
       </c>
-      <c r="L239" t="s">
-        <v>20</v>
+      <c r="L239">
+        <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10279,11 +10270,11 @@
       <c r="K240" t="s">
         <v>17</v>
       </c>
-      <c r="L240" t="s">
-        <v>20</v>
+      <c r="L240">
+        <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10320,11 +10311,11 @@
       <c r="K241" t="s">
         <v>17</v>
       </c>
-      <c r="L241" t="s">
-        <v>20</v>
+      <c r="L241">
+        <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10361,11 +10352,11 @@
       <c r="K242" t="s">
         <v>17</v>
       </c>
-      <c r="L242" t="s">
-        <v>20</v>
+      <c r="L242">
+        <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10402,11 +10393,11 @@
       <c r="K243" t="s">
         <v>16</v>
       </c>
-      <c r="L243" t="s">
-        <v>19</v>
+      <c r="L243">
+        <v>2</v>
       </c>
       <c r="M243" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10443,11 +10434,11 @@
       <c r="K244" t="s">
         <v>16</v>
       </c>
-      <c r="L244" t="s">
-        <v>19</v>
+      <c r="L244">
+        <v>2</v>
       </c>
       <c r="M244" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10484,11 +10475,11 @@
       <c r="K245" t="s">
         <v>17</v>
       </c>
-      <c r="L245" t="s">
-        <v>18</v>
+      <c r="L245">
+        <v>1</v>
       </c>
       <c r="M245" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10525,11 +10516,11 @@
       <c r="K246" t="s">
         <v>17</v>
       </c>
-      <c r="L246" t="s">
-        <v>18</v>
+      <c r="L246">
+        <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10566,11 +10557,11 @@
       <c r="K247" t="s">
         <v>16</v>
       </c>
-      <c r="L247" t="s">
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
         <v>18</v>
-      </c>
-      <c r="M247" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10607,11 +10598,11 @@
       <c r="K248" t="s">
         <v>17</v>
       </c>
-      <c r="L248" t="s">
-        <v>19</v>
+      <c r="L248">
+        <v>2</v>
       </c>
       <c r="M248" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10648,11 +10639,11 @@
       <c r="K249" t="s">
         <v>17</v>
       </c>
-      <c r="L249" t="s">
-        <v>19</v>
+      <c r="L249">
+        <v>2</v>
       </c>
       <c r="M249" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10689,11 +10680,11 @@
       <c r="K250" t="s">
         <v>17</v>
       </c>
-      <c r="L250" t="s">
-        <v>18</v>
+      <c r="L250">
+        <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10730,11 +10721,11 @@
       <c r="K251" t="s">
         <v>17</v>
       </c>
-      <c r="L251" t="s">
-        <v>18</v>
+      <c r="L251">
+        <v>1</v>
       </c>
       <c r="M251" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10771,11 +10762,11 @@
       <c r="K252" t="s">
         <v>17</v>
       </c>
-      <c r="L252" t="s">
-        <v>19</v>
+      <c r="L252">
+        <v>2</v>
       </c>
       <c r="M252" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10812,11 +10803,11 @@
       <c r="K253" t="s">
         <v>17</v>
       </c>
-      <c r="L253" t="s">
-        <v>19</v>
+      <c r="L253">
+        <v>2</v>
       </c>
       <c r="M253" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10853,11 +10844,11 @@
       <c r="K254" t="s">
         <v>17</v>
       </c>
-      <c r="L254" t="s">
-        <v>18</v>
+      <c r="L254">
+        <v>1</v>
       </c>
       <c r="M254" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -10894,11 +10885,11 @@
       <c r="K255" t="s">
         <v>17</v>
       </c>
-      <c r="L255" t="s">
-        <v>18</v>
+      <c r="L255">
+        <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -10935,11 +10926,11 @@
       <c r="K256" t="s">
         <v>17</v>
       </c>
-      <c r="L256" t="s">
-        <v>20</v>
+      <c r="L256">
+        <v>3</v>
       </c>
       <c r="M256" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -10976,11 +10967,11 @@
       <c r="K257" t="s">
         <v>17</v>
       </c>
-      <c r="L257" t="s">
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
         <v>18</v>
-      </c>
-      <c r="M257" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11017,11 +11008,11 @@
       <c r="K258" t="s">
         <v>17</v>
       </c>
-      <c r="L258" t="s">
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
         <v>18</v>
-      </c>
-      <c r="M258" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11058,11 +11049,11 @@
       <c r="K259" t="s">
         <v>16</v>
       </c>
-      <c r="L259" t="s">
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259" t="s">
         <v>18</v>
-      </c>
-      <c r="M259" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11099,11 +11090,11 @@
       <c r="K260" t="s">
         <v>16</v>
       </c>
-      <c r="L260" t="s">
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
         <v>18</v>
-      </c>
-      <c r="M260" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11140,11 +11131,11 @@
       <c r="K261" t="s">
         <v>17</v>
       </c>
-      <c r="L261" t="s">
-        <v>19</v>
+      <c r="L261">
+        <v>2</v>
       </c>
       <c r="M261" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11181,11 +11172,11 @@
       <c r="K262" t="s">
         <v>17</v>
       </c>
-      <c r="L262" t="s">
-        <v>19</v>
+      <c r="L262">
+        <v>2</v>
       </c>
       <c r="M262" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11222,11 +11213,11 @@
       <c r="K263" t="s">
         <v>17</v>
       </c>
-      <c r="L263" t="s">
-        <v>20</v>
+      <c r="L263">
+        <v>3</v>
       </c>
       <c r="M263" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11263,11 +11254,11 @@
       <c r="K264" t="s">
         <v>17</v>
       </c>
-      <c r="L264" t="s">
-        <v>20</v>
+      <c r="L264">
+        <v>3</v>
       </c>
       <c r="M264" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11304,11 +11295,11 @@
       <c r="K265" t="s">
         <v>17</v>
       </c>
-      <c r="L265" t="s">
-        <v>18</v>
+      <c r="L265">
+        <v>1</v>
       </c>
       <c r="M265" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11345,11 +11336,11 @@
       <c r="K266" t="s">
         <v>17</v>
       </c>
-      <c r="L266" t="s">
-        <v>18</v>
+      <c r="L266">
+        <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11386,11 +11377,11 @@
       <c r="K267" t="s">
         <v>17</v>
       </c>
-      <c r="L267" t="s">
-        <v>20</v>
+      <c r="L267">
+        <v>3</v>
       </c>
       <c r="M267" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11427,11 +11418,11 @@
       <c r="K268" t="s">
         <v>17</v>
       </c>
-      <c r="L268" t="s">
-        <v>20</v>
+      <c r="L268">
+        <v>3</v>
       </c>
       <c r="M268" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11468,11 +11459,11 @@
       <c r="K269" t="s">
         <v>17</v>
       </c>
-      <c r="L269" t="s">
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269" t="s">
         <v>18</v>
-      </c>
-      <c r="M269" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11509,11 +11500,11 @@
       <c r="K270" t="s">
         <v>17</v>
       </c>
-      <c r="L270" t="s">
-        <v>20</v>
+      <c r="L270">
+        <v>3</v>
       </c>
       <c r="M270" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11550,11 +11541,11 @@
       <c r="K271" t="s">
         <v>16</v>
       </c>
-      <c r="L271" t="s">
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
         <v>18</v>
-      </c>
-      <c r="M271" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11591,11 +11582,11 @@
       <c r="K272" t="s">
         <v>16</v>
       </c>
-      <c r="L272" t="s">
-        <v>20</v>
+      <c r="L272">
+        <v>3</v>
       </c>
       <c r="M272" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11632,11 +11623,11 @@
       <c r="K273" t="s">
         <v>17</v>
       </c>
-      <c r="L273" t="s">
-        <v>19</v>
+      <c r="L273">
+        <v>2</v>
       </c>
       <c r="M273" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11673,11 +11664,11 @@
       <c r="K274" t="s">
         <v>17</v>
       </c>
-      <c r="L274" t="s">
-        <v>19</v>
+      <c r="L274">
+        <v>2</v>
       </c>
       <c r="M274" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11714,11 +11705,11 @@
       <c r="K275" t="s">
         <v>17</v>
       </c>
-      <c r="L275" t="s">
-        <v>20</v>
+      <c r="L275">
+        <v>3</v>
       </c>
       <c r="M275" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11755,11 +11746,11 @@
       <c r="K276" t="s">
         <v>16</v>
       </c>
-      <c r="L276" t="s">
-        <v>20</v>
+      <c r="L276">
+        <v>3</v>
       </c>
       <c r="M276" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11796,11 +11787,11 @@
       <c r="K277" t="s">
         <v>17</v>
       </c>
-      <c r="L277" t="s">
-        <v>20</v>
+      <c r="L277">
+        <v>3</v>
       </c>
       <c r="M277" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11837,11 +11828,11 @@
       <c r="K278" t="s">
         <v>17</v>
       </c>
-      <c r="L278" t="s">
-        <v>18</v>
+      <c r="L278">
+        <v>1</v>
       </c>
       <c r="M278" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11878,11 +11869,11 @@
       <c r="K279" t="s">
         <v>17</v>
       </c>
-      <c r="L279" t="s">
-        <v>19</v>
+      <c r="L279">
+        <v>2</v>
       </c>
       <c r="M279" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11919,11 +11910,11 @@
       <c r="K280" t="s">
         <v>16</v>
       </c>
-      <c r="L280" t="s">
-        <v>18</v>
+      <c r="L280">
+        <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11960,11 +11951,11 @@
       <c r="K281" t="s">
         <v>16</v>
       </c>
-      <c r="L281" t="s">
-        <v>19</v>
+      <c r="L281">
+        <v>2</v>
       </c>
       <c r="M281" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12001,11 +11992,11 @@
       <c r="K282" t="s">
         <v>17</v>
       </c>
-      <c r="L282" t="s">
-        <v>20</v>
+      <c r="L282">
+        <v>3</v>
       </c>
       <c r="M282" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12042,11 +12033,11 @@
       <c r="K283" t="s">
         <v>17</v>
       </c>
-      <c r="L283" t="s">
-        <v>19</v>
+      <c r="L283">
+        <v>2</v>
       </c>
       <c r="M283" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12083,11 +12074,11 @@
       <c r="K284" t="s">
         <v>17</v>
       </c>
-      <c r="L284" t="s">
-        <v>19</v>
+      <c r="L284">
+        <v>2</v>
       </c>
       <c r="M284" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12124,11 +12115,11 @@
       <c r="K285" t="s">
         <v>17</v>
       </c>
-      <c r="L285" t="s">
-        <v>20</v>
+      <c r="L285">
+        <v>3</v>
       </c>
       <c r="M285" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12165,11 +12156,11 @@
       <c r="K286" t="s">
         <v>16</v>
       </c>
-      <c r="L286" t="s">
-        <v>20</v>
+      <c r="L286">
+        <v>3</v>
       </c>
       <c r="M286" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12206,11 +12197,11 @@
       <c r="K287" t="s">
         <v>16</v>
       </c>
-      <c r="L287" t="s">
-        <v>20</v>
+      <c r="L287">
+        <v>3</v>
       </c>
       <c r="M287" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12247,11 +12238,11 @@
       <c r="K288" t="s">
         <v>17</v>
       </c>
-      <c r="L288" t="s">
-        <v>19</v>
+      <c r="L288">
+        <v>2</v>
       </c>
       <c r="M288" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12288,11 +12279,11 @@
       <c r="K289" t="s">
         <v>17</v>
       </c>
-      <c r="L289" t="s">
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
         <v>18</v>
-      </c>
-      <c r="M289" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12329,11 +12320,11 @@
       <c r="K290" t="s">
         <v>17</v>
       </c>
-      <c r="L290" t="s">
-        <v>18</v>
+      <c r="L290">
+        <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12370,11 +12361,11 @@
       <c r="K291" t="s">
         <v>17</v>
       </c>
-      <c r="L291" t="s">
-        <v>18</v>
+      <c r="L291">
+        <v>1</v>
       </c>
       <c r="M291" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12411,11 +12402,11 @@
       <c r="K292" t="s">
         <v>17</v>
       </c>
-      <c r="L292" t="s">
-        <v>19</v>
+      <c r="L292">
+        <v>2</v>
       </c>
       <c r="M292" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12452,11 +12443,11 @@
       <c r="K293" t="s">
         <v>17</v>
       </c>
-      <c r="L293" t="s">
-        <v>18</v>
+      <c r="L293">
+        <v>1</v>
       </c>
       <c r="M293" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12493,11 +12484,11 @@
       <c r="K294" t="s">
         <v>17</v>
       </c>
-      <c r="L294" t="s">
-        <v>18</v>
+      <c r="L294">
+        <v>1</v>
       </c>
       <c r="M294" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12534,11 +12525,11 @@
       <c r="K295" t="s">
         <v>17</v>
       </c>
-      <c r="L295" t="s">
-        <v>19</v>
+      <c r="L295">
+        <v>2</v>
       </c>
       <c r="M295" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12575,11 +12566,11 @@
       <c r="K296" t="s">
         <v>17</v>
       </c>
-      <c r="L296" t="s">
-        <v>20</v>
+      <c r="L296">
+        <v>3</v>
       </c>
       <c r="M296" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12616,11 +12607,11 @@
       <c r="K297" t="s">
         <v>17</v>
       </c>
-      <c r="L297" t="s">
-        <v>20</v>
+      <c r="L297">
+        <v>3</v>
       </c>
       <c r="M297" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12657,11 +12648,11 @@
       <c r="K298" t="s">
         <v>16</v>
       </c>
-      <c r="L298" t="s">
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298" t="s">
         <v>18</v>
-      </c>
-      <c r="M298" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12698,11 +12689,11 @@
       <c r="K299" t="s">
         <v>17</v>
       </c>
-      <c r="L299" t="s">
-        <v>19</v>
+      <c r="L299">
+        <v>2</v>
       </c>
       <c r="M299" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12739,11 +12730,11 @@
       <c r="K300" t="s">
         <v>17</v>
       </c>
-      <c r="L300" t="s">
-        <v>20</v>
+      <c r="L300">
+        <v>3</v>
       </c>
       <c r="M300" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12780,11 +12771,11 @@
       <c r="K301" t="s">
         <v>17</v>
       </c>
-      <c r="L301" t="s">
-        <v>20</v>
+      <c r="L301">
+        <v>3</v>
       </c>
       <c r="M301" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12821,11 +12812,11 @@
       <c r="K302" t="s">
         <v>17</v>
       </c>
-      <c r="L302" t="s">
-        <v>18</v>
+      <c r="L302">
+        <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12862,11 +12853,11 @@
       <c r="K303" t="s">
         <v>17</v>
       </c>
-      <c r="L303" t="s">
-        <v>19</v>
+      <c r="L303">
+        <v>2</v>
       </c>
       <c r="M303" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12903,11 +12894,11 @@
       <c r="K304" t="s">
         <v>17</v>
       </c>
-      <c r="L304" t="s">
-        <v>20</v>
+      <c r="L304">
+        <v>3</v>
       </c>
       <c r="M304" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12944,11 +12935,11 @@
       <c r="K305" t="s">
         <v>17</v>
       </c>
-      <c r="L305" t="s">
-        <v>19</v>
+      <c r="L305">
+        <v>2</v>
       </c>
       <c r="M305" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -12985,11 +12976,11 @@
       <c r="K306" t="s">
         <v>16</v>
       </c>
-      <c r="L306" t="s">
-        <v>20</v>
+      <c r="L306">
+        <v>3</v>
       </c>
       <c r="M306" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13026,11 +13017,11 @@
       <c r="K307" t="s">
         <v>17</v>
       </c>
-      <c r="L307" t="s">
-        <v>18</v>
+      <c r="L307">
+        <v>1</v>
       </c>
       <c r="M307" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13067,11 +13058,11 @@
       <c r="K308" t="s">
         <v>17</v>
       </c>
-      <c r="L308" t="s">
-        <v>20</v>
+      <c r="L308">
+        <v>3</v>
       </c>
       <c r="M308" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13108,11 +13099,11 @@
       <c r="K309" t="s">
         <v>17</v>
       </c>
-      <c r="L309" t="s">
-        <v>19</v>
+      <c r="L309">
+        <v>2</v>
       </c>
       <c r="M309" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13149,11 +13140,11 @@
       <c r="K310" t="s">
         <v>17</v>
       </c>
-      <c r="L310" t="s">
-        <v>20</v>
+      <c r="L310">
+        <v>3</v>
       </c>
       <c r="M310" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13190,11 +13181,11 @@
       <c r="K311" t="s">
         <v>16</v>
       </c>
-      <c r="L311" t="s">
-        <v>20</v>
+      <c r="L311">
+        <v>3</v>
       </c>
       <c r="M311" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13231,11 +13222,11 @@
       <c r="K312" t="s">
         <v>17</v>
       </c>
-      <c r="L312" t="s">
-        <v>19</v>
+      <c r="L312">
+        <v>2</v>
       </c>
       <c r="M312" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13272,11 +13263,11 @@
       <c r="K313" t="s">
         <v>17</v>
       </c>
-      <c r="L313" t="s">
-        <v>18</v>
+      <c r="L313">
+        <v>1</v>
       </c>
       <c r="M313" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13313,11 +13304,11 @@
       <c r="K314" t="s">
         <v>17</v>
       </c>
-      <c r="L314" t="s">
-        <v>20</v>
+      <c r="L314">
+        <v>3</v>
       </c>
       <c r="M314" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13354,11 +13345,11 @@
       <c r="K315" t="s">
         <v>17</v>
       </c>
-      <c r="L315" t="s">
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315" t="s">
         <v>18</v>
-      </c>
-      <c r="M315" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13395,11 +13386,11 @@
       <c r="K316" t="s">
         <v>16</v>
       </c>
-      <c r="L316" t="s">
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316" t="s">
         <v>18</v>
-      </c>
-      <c r="M316" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13436,11 +13427,11 @@
       <c r="K317" t="s">
         <v>17</v>
       </c>
-      <c r="L317" t="s">
-        <v>19</v>
+      <c r="L317">
+        <v>2</v>
       </c>
       <c r="M317" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13477,11 +13468,11 @@
       <c r="K318" t="s">
         <v>17</v>
       </c>
-      <c r="L318" t="s">
-        <v>19</v>
+      <c r="L318">
+        <v>2</v>
       </c>
       <c r="M318" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13518,11 +13509,11 @@
       <c r="K319" t="s">
         <v>17</v>
       </c>
-      <c r="L319" t="s">
-        <v>19</v>
+      <c r="L319">
+        <v>2</v>
       </c>
       <c r="M319" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13559,11 +13550,11 @@
       <c r="K320" t="s">
         <v>17</v>
       </c>
-      <c r="L320" t="s">
-        <v>18</v>
+      <c r="L320">
+        <v>1</v>
       </c>
       <c r="M320" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13600,11 +13591,11 @@
       <c r="K321" t="s">
         <v>16</v>
       </c>
-      <c r="L321" t="s">
-        <v>18</v>
+      <c r="L321">
+        <v>1</v>
       </c>
       <c r="M321" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13641,11 +13632,11 @@
       <c r="K322" t="s">
         <v>17</v>
       </c>
-      <c r="L322" t="s">
-        <v>20</v>
+      <c r="L322">
+        <v>3</v>
       </c>
       <c r="M322" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13682,11 +13673,11 @@
       <c r="K323" t="s">
         <v>17</v>
       </c>
-      <c r="L323" t="s">
-        <v>20</v>
+      <c r="L323">
+        <v>3</v>
       </c>
       <c r="M323" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13723,11 +13714,11 @@
       <c r="K324" t="s">
         <v>17</v>
       </c>
-      <c r="L324" t="s">
-        <v>19</v>
+      <c r="L324">
+        <v>2</v>
       </c>
       <c r="M324" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -13764,11 +13755,11 @@
       <c r="K325" t="s">
         <v>16</v>
       </c>
-      <c r="L325" t="s">
-        <v>20</v>
+      <c r="L325">
+        <v>3</v>
       </c>
       <c r="M325" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -13805,11 +13796,11 @@
       <c r="K326" t="s">
         <v>17</v>
       </c>
-      <c r="L326" t="s">
-        <v>19</v>
+      <c r="L326">
+        <v>2</v>
       </c>
       <c r="M326" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13846,11 +13837,11 @@
       <c r="K327" t="s">
         <v>17</v>
       </c>
-      <c r="L327" t="s">
-        <v>19</v>
+      <c r="L327">
+        <v>2</v>
       </c>
       <c r="M327" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13887,11 +13878,11 @@
       <c r="K328" t="s">
         <v>16</v>
       </c>
-      <c r="L328" t="s">
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328" t="s">
         <v>18</v>
-      </c>
-      <c r="M328" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -13928,11 +13919,11 @@
       <c r="K329" t="s">
         <v>17</v>
       </c>
-      <c r="L329" t="s">
-        <v>18</v>
+      <c r="L329">
+        <v>1</v>
       </c>
       <c r="M329" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -13969,11 +13960,11 @@
       <c r="K330" t="s">
         <v>17</v>
       </c>
-      <c r="L330" t="s">
-        <v>18</v>
+      <c r="L330">
+        <v>1</v>
       </c>
       <c r="M330" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -14010,11 +14001,11 @@
       <c r="K331" t="s">
         <v>17</v>
       </c>
-      <c r="L331" t="s">
-        <v>20</v>
+      <c r="L331">
+        <v>3</v>
       </c>
       <c r="M331" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -14051,11 +14042,11 @@
       <c r="K332" t="s">
         <v>16</v>
       </c>
-      <c r="L332" t="s">
-        <v>19</v>
+      <c r="L332">
+        <v>2</v>
       </c>
       <c r="M332" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -14092,11 +14083,11 @@
       <c r="K333" t="s">
         <v>17</v>
       </c>
-      <c r="L333" t="s">
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333" t="s">
         <v>18</v>
-      </c>
-      <c r="M333" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -14133,11 +14124,11 @@
       <c r="K334" t="s">
         <v>17</v>
       </c>
-      <c r="L334" t="s">
-        <v>18</v>
+      <c r="L334">
+        <v>1</v>
       </c>
       <c r="M334" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -14174,11 +14165,11 @@
       <c r="K335" t="s">
         <v>17</v>
       </c>
-      <c r="L335" t="s">
-        <v>19</v>
+      <c r="L335">
+        <v>2</v>
       </c>
       <c r="M335" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -14215,11 +14206,11 @@
       <c r="K336" t="s">
         <v>17</v>
       </c>
-      <c r="L336" t="s">
-        <v>18</v>
+      <c r="L336">
+        <v>1</v>
       </c>
       <c r="M336" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -14256,11 +14247,11 @@
       <c r="K337" t="s">
         <v>17</v>
       </c>
-      <c r="L337" t="s">
-        <v>18</v>
+      <c r="L337">
+        <v>1</v>
       </c>
       <c r="M337" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -14297,11 +14288,11 @@
       <c r="K338" t="s">
         <v>17</v>
       </c>
-      <c r="L338" t="s">
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338" t="s">
         <v>18</v>
-      </c>
-      <c r="M338" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -14338,11 +14329,11 @@
       <c r="K339" t="s">
         <v>17</v>
       </c>
-      <c r="L339" t="s">
-        <v>18</v>
+      <c r="L339">
+        <v>1</v>
       </c>
       <c r="M339" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -14379,11 +14370,11 @@
       <c r="K340" t="s">
         <v>17</v>
       </c>
-      <c r="L340" t="s">
-        <v>19</v>
+      <c r="L340">
+        <v>2</v>
       </c>
       <c r="M340" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -14420,11 +14411,11 @@
       <c r="K341" t="s">
         <v>16</v>
       </c>
-      <c r="L341" t="s">
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341" t="s">
         <v>18</v>
-      </c>
-      <c r="M341" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -14461,11 +14452,11 @@
       <c r="K342" t="s">
         <v>17</v>
       </c>
-      <c r="L342" t="s">
-        <v>18</v>
+      <c r="L342">
+        <v>1</v>
       </c>
       <c r="M342" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -14502,11 +14493,11 @@
       <c r="K343" t="s">
         <v>17</v>
       </c>
-      <c r="L343" t="s">
-        <v>20</v>
+      <c r="L343">
+        <v>3</v>
       </c>
       <c r="M343" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -14543,11 +14534,11 @@
       <c r="K344" t="s">
         <v>17</v>
       </c>
-      <c r="L344" t="s">
-        <v>20</v>
+      <c r="L344">
+        <v>3</v>
       </c>
       <c r="M344" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" spans="1:13">
@@ -14584,11 +14575,11 @@
       <c r="K345" t="s">
         <v>16</v>
       </c>
-      <c r="L345" t="s">
-        <v>18</v>
+      <c r="L345">
+        <v>1</v>
       </c>
       <c r="M345" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -14625,11 +14616,11 @@
       <c r="K346" t="s">
         <v>17</v>
       </c>
-      <c r="L346" t="s">
-        <v>19</v>
+      <c r="L346">
+        <v>2</v>
       </c>
       <c r="M346" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -14666,11 +14657,11 @@
       <c r="K347" t="s">
         <v>17</v>
       </c>
-      <c r="L347" t="s">
-        <v>18</v>
+      <c r="L347">
+        <v>1</v>
       </c>
       <c r="M347" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" spans="1:13">
@@ -14707,11 +14698,11 @@
       <c r="K348" t="s">
         <v>16</v>
       </c>
-      <c r="L348" t="s">
-        <v>19</v>
+      <c r="L348">
+        <v>2</v>
       </c>
       <c r="M348" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349" spans="1:13">
@@ -14748,11 +14739,11 @@
       <c r="K349" t="s">
         <v>16</v>
       </c>
-      <c r="L349" t="s">
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349" t="s">
         <v>18</v>
-      </c>
-      <c r="M349" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -14789,11 +14780,11 @@
       <c r="K350" t="s">
         <v>17</v>
       </c>
-      <c r="L350" t="s">
-        <v>18</v>
+      <c r="L350">
+        <v>1</v>
       </c>
       <c r="M350" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -14830,11 +14821,11 @@
       <c r="K351" t="s">
         <v>17</v>
       </c>
-      <c r="L351" t="s">
-        <v>20</v>
+      <c r="L351">
+        <v>3</v>
       </c>
       <c r="M351" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -14871,11 +14862,11 @@
       <c r="K352" t="s">
         <v>16</v>
       </c>
-      <c r="L352" t="s">
-        <v>19</v>
+      <c r="L352">
+        <v>2</v>
       </c>
       <c r="M352" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -14912,11 +14903,11 @@
       <c r="K353" t="s">
         <v>16</v>
       </c>
-      <c r="L353" t="s">
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353" t="s">
         <v>18</v>
-      </c>
-      <c r="M353" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="354" spans="1:13">
@@ -14953,11 +14944,11 @@
       <c r="K354" t="s">
         <v>17</v>
       </c>
-      <c r="L354" t="s">
-        <v>20</v>
+      <c r="L354">
+        <v>3</v>
       </c>
       <c r="M354" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355" spans="1:13">
@@ -14994,11 +14985,11 @@
       <c r="K355" t="s">
         <v>17</v>
       </c>
-      <c r="L355" t="s">
-        <v>19</v>
+      <c r="L355">
+        <v>2</v>
       </c>
       <c r="M355" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356" spans="1:13">
@@ -15035,11 +15026,11 @@
       <c r="K356" t="s">
         <v>17</v>
       </c>
-      <c r="L356" t="s">
-        <v>19</v>
+      <c r="L356">
+        <v>2</v>
       </c>
       <c r="M356" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:13">
@@ -15076,11 +15067,11 @@
       <c r="K357" t="s">
         <v>17</v>
       </c>
-      <c r="L357" t="s">
-        <v>20</v>
+      <c r="L357">
+        <v>3</v>
       </c>
       <c r="M357" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:13">
@@ -15117,11 +15108,11 @@
       <c r="K358" t="s">
         <v>17</v>
       </c>
-      <c r="L358" t="s">
-        <v>19</v>
+      <c r="L358">
+        <v>2</v>
       </c>
       <c r="M358" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -15158,11 +15149,11 @@
       <c r="K359" t="s">
         <v>17</v>
       </c>
-      <c r="L359" t="s">
-        <v>18</v>
+      <c r="L359">
+        <v>1</v>
       </c>
       <c r="M359" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -15199,11 +15190,11 @@
       <c r="K360" t="s">
         <v>17</v>
       </c>
-      <c r="L360" t="s">
-        <v>20</v>
+      <c r="L360">
+        <v>3</v>
       </c>
       <c r="M360" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -15240,11 +15231,11 @@
       <c r="K361" t="s">
         <v>16</v>
       </c>
-      <c r="L361" t="s">
-        <v>19</v>
+      <c r="L361">
+        <v>2</v>
       </c>
       <c r="M361" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362" spans="1:13">
@@ -15281,11 +15272,11 @@
       <c r="K362" t="s">
         <v>17</v>
       </c>
-      <c r="L362" t="s">
-        <v>19</v>
+      <c r="L362">
+        <v>2</v>
       </c>
       <c r="M362" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363" spans="1:13">
@@ -15322,11 +15313,11 @@
       <c r="K363" t="s">
         <v>16</v>
       </c>
-      <c r="L363" t="s">
-        <v>18</v>
+      <c r="L363">
+        <v>1</v>
       </c>
       <c r="M363" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364" spans="1:13">
@@ -15363,11 +15354,11 @@
       <c r="K364" t="s">
         <v>16</v>
       </c>
-      <c r="L364" t="s">
-        <v>20</v>
+      <c r="L364">
+        <v>3</v>
       </c>
       <c r="M364" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="365" spans="1:13">
@@ -15404,11 +15395,11 @@
       <c r="K365" t="s">
         <v>17</v>
       </c>
-      <c r="L365" t="s">
-        <v>20</v>
+      <c r="L365">
+        <v>3</v>
       </c>
       <c r="M365" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="1:13">
@@ -15445,11 +15436,11 @@
       <c r="K366" t="s">
         <v>16</v>
       </c>
-      <c r="L366" t="s">
-        <v>19</v>
+      <c r="L366">
+        <v>2</v>
       </c>
       <c r="M366" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -15486,11 +15477,11 @@
       <c r="K367" t="s">
         <v>17</v>
       </c>
-      <c r="L367" t="s">
-        <v>18</v>
+      <c r="L367">
+        <v>1</v>
       </c>
       <c r="M367" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="368" spans="1:13">
@@ -15527,11 +15518,11 @@
       <c r="K368" t="s">
         <v>17</v>
       </c>
-      <c r="L368" t="s">
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368" t="s">
         <v>18</v>
-      </c>
-      <c r="M368" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -15568,11 +15559,11 @@
       <c r="K369" t="s">
         <v>17</v>
       </c>
-      <c r="L369" t="s">
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369" t="s">
         <v>18</v>
-      </c>
-      <c r="M369" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -15609,11 +15600,11 @@
       <c r="K370" t="s">
         <v>17</v>
       </c>
-      <c r="L370" t="s">
-        <v>20</v>
+      <c r="L370">
+        <v>3</v>
       </c>
       <c r="M370" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="371" spans="1:13">
@@ -15650,11 +15641,11 @@
       <c r="K371" t="s">
         <v>17</v>
       </c>
-      <c r="L371" t="s">
-        <v>19</v>
+      <c r="L371">
+        <v>2</v>
       </c>
       <c r="M371" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="372" spans="1:13">
@@ -15691,11 +15682,11 @@
       <c r="K372" t="s">
         <v>17</v>
       </c>
-      <c r="L372" t="s">
-        <v>20</v>
+      <c r="L372">
+        <v>3</v>
       </c>
       <c r="M372" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -15732,11 +15723,11 @@
       <c r="K373" t="s">
         <v>16</v>
       </c>
-      <c r="L373" t="s">
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373" t="s">
         <v>18</v>
-      </c>
-      <c r="M373" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="374" spans="1:13">
@@ -15773,11 +15764,11 @@
       <c r="K374" t="s">
         <v>17</v>
       </c>
-      <c r="L374" t="s">
-        <v>18</v>
+      <c r="L374">
+        <v>1</v>
       </c>
       <c r="M374" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375" spans="1:13">
@@ -15814,11 +15805,11 @@
       <c r="K375" t="s">
         <v>16</v>
       </c>
-      <c r="L375" t="s">
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375" t="s">
         <v>18</v>
-      </c>
-      <c r="M375" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="376" spans="1:13">
@@ -15855,11 +15846,11 @@
       <c r="K376" t="s">
         <v>17</v>
       </c>
-      <c r="L376" t="s">
-        <v>20</v>
+      <c r="L376">
+        <v>3</v>
       </c>
       <c r="M376" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="377" spans="1:13">
@@ -15896,11 +15887,11 @@
       <c r="K377" t="s">
         <v>17</v>
       </c>
-      <c r="L377" t="s">
-        <v>20</v>
+      <c r="L377">
+        <v>3</v>
       </c>
       <c r="M377" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="378" spans="1:13">
@@ -15937,11 +15928,11 @@
       <c r="K378" t="s">
         <v>17</v>
       </c>
-      <c r="L378" t="s">
-        <v>19</v>
+      <c r="L378">
+        <v>2</v>
       </c>
       <c r="M378" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" spans="1:13">
@@ -15978,11 +15969,11 @@
       <c r="K379" t="s">
         <v>17</v>
       </c>
-      <c r="L379" t="s">
-        <v>20</v>
+      <c r="L379">
+        <v>3</v>
       </c>
       <c r="M379" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -16019,11 +16010,11 @@
       <c r="K380" t="s">
         <v>17</v>
       </c>
-      <c r="L380" t="s">
-        <v>18</v>
+      <c r="L380">
+        <v>1</v>
       </c>
       <c r="M380" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -16060,11 +16051,11 @@
       <c r="K381" t="s">
         <v>17</v>
       </c>
-      <c r="L381" t="s">
-        <v>19</v>
+      <c r="L381">
+        <v>2</v>
       </c>
       <c r="M381" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -16101,11 +16092,11 @@
       <c r="K382" t="s">
         <v>16</v>
       </c>
-      <c r="L382" t="s">
-        <v>20</v>
+      <c r="L382">
+        <v>3</v>
       </c>
       <c r="M382" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383" spans="1:13">
@@ -16142,11 +16133,11 @@
       <c r="K383" t="s">
         <v>17</v>
       </c>
-      <c r="L383" t="s">
-        <v>19</v>
+      <c r="L383">
+        <v>2</v>
       </c>
       <c r="M383" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -16183,11 +16174,11 @@
       <c r="K384" t="s">
         <v>17</v>
       </c>
-      <c r="L384" t="s">
-        <v>18</v>
+      <c r="L384">
+        <v>1</v>
       </c>
       <c r="M384" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="385" spans="1:13">
@@ -16224,11 +16215,11 @@
       <c r="K385" t="s">
         <v>17</v>
       </c>
-      <c r="L385" t="s">
-        <v>19</v>
+      <c r="L385">
+        <v>2</v>
       </c>
       <c r="M385" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -16265,11 +16256,11 @@
       <c r="K386" t="s">
         <v>17</v>
       </c>
-      <c r="L386" t="s">
-        <v>20</v>
+      <c r="L386">
+        <v>3</v>
       </c>
       <c r="M386" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="387" spans="1:13">
@@ -16306,11 +16297,11 @@
       <c r="K387" t="s">
         <v>17</v>
       </c>
-      <c r="L387" t="s">
-        <v>19</v>
+      <c r="L387">
+        <v>2</v>
       </c>
       <c r="M387" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" spans="1:13">
@@ -16347,11 +16338,11 @@
       <c r="K388" t="s">
         <v>17</v>
       </c>
-      <c r="L388" t="s">
-        <v>20</v>
+      <c r="L388">
+        <v>3</v>
       </c>
       <c r="M388" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="389" spans="1:13">
@@ -16388,11 +16379,11 @@
       <c r="K389" t="s">
         <v>17</v>
       </c>
-      <c r="L389" t="s">
-        <v>19</v>
+      <c r="L389">
+        <v>2</v>
       </c>
       <c r="M389" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="390" spans="1:13">
@@ -16429,11 +16420,11 @@
       <c r="K390" t="s">
         <v>16</v>
       </c>
-      <c r="L390" t="s">
-        <v>20</v>
+      <c r="L390">
+        <v>3</v>
       </c>
       <c r="M390" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" spans="1:13">
@@ -16470,11 +16461,11 @@
       <c r="K391" t="s">
         <v>17</v>
       </c>
-      <c r="L391" t="s">
-        <v>20</v>
+      <c r="L391">
+        <v>3</v>
       </c>
       <c r="M391" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392" spans="1:13">
@@ -16511,11 +16502,11 @@
       <c r="K392" t="s">
         <v>17</v>
       </c>
-      <c r="L392" t="s">
-        <v>20</v>
+      <c r="L392">
+        <v>3</v>
       </c>
       <c r="M392" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393" spans="1:13">
@@ -16552,11 +16543,11 @@
       <c r="K393" t="s">
         <v>17</v>
       </c>
-      <c r="L393" t="s">
-        <v>20</v>
+      <c r="L393">
+        <v>3</v>
       </c>
       <c r="M393" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394" spans="1:13">
@@ -16593,11 +16584,11 @@
       <c r="K394" t="s">
         <v>16</v>
       </c>
-      <c r="L394" t="s">
-        <v>20</v>
+      <c r="L394">
+        <v>3</v>
       </c>
       <c r="M394" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -16634,11 +16625,11 @@
       <c r="K395" t="s">
         <v>16</v>
       </c>
-      <c r="L395" t="s">
-        <v>19</v>
+      <c r="L395">
+        <v>2</v>
       </c>
       <c r="M395" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396" spans="1:13">
@@ -16675,11 +16666,11 @@
       <c r="K396" t="s">
         <v>16</v>
       </c>
-      <c r="L396" t="s">
-        <v>20</v>
+      <c r="L396">
+        <v>3</v>
       </c>
       <c r="M396" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" spans="1:13">
@@ -16716,11 +16707,11 @@
       <c r="K397" t="s">
         <v>16</v>
       </c>
-      <c r="L397" t="s">
-        <v>18</v>
+      <c r="L397">
+        <v>1</v>
       </c>
       <c r="M397" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398" spans="1:13">
@@ -16757,11 +16748,11 @@
       <c r="K398" t="s">
         <v>16</v>
       </c>
-      <c r="L398" t="s">
-        <v>20</v>
+      <c r="L398">
+        <v>3</v>
       </c>
       <c r="M398" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="1:13">
@@ -16798,11 +16789,11 @@
       <c r="K399" t="s">
         <v>16</v>
       </c>
-      <c r="L399" t="s">
-        <v>20</v>
+      <c r="L399">
+        <v>3</v>
       </c>
       <c r="M399" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -16839,11 +16830,11 @@
       <c r="K400" t="s">
         <v>17</v>
       </c>
-      <c r="L400" t="s">
-        <v>19</v>
+      <c r="L400">
+        <v>2</v>
       </c>
       <c r="M400" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -16880,11 +16871,11 @@
       <c r="K401" t="s">
         <v>17</v>
       </c>
-      <c r="L401" t="s">
-        <v>19</v>
+      <c r="L401">
+        <v>2</v>
       </c>
       <c r="M401" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -16921,11 +16912,11 @@
       <c r="K402" t="s">
         <v>17</v>
       </c>
-      <c r="L402" t="s">
-        <v>18</v>
+      <c r="L402">
+        <v>1</v>
       </c>
       <c r="M402" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -16962,11 +16953,11 @@
       <c r="K403" t="s">
         <v>17</v>
       </c>
-      <c r="L403" t="s">
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403" t="s">
         <v>18</v>
-      </c>
-      <c r="M403" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -17003,11 +16994,11 @@
       <c r="K404" t="s">
         <v>17</v>
       </c>
-      <c r="L404" t="s">
-        <v>20</v>
+      <c r="L404">
+        <v>3</v>
       </c>
       <c r="M404" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -17044,11 +17035,11 @@
       <c r="K405" t="s">
         <v>17</v>
       </c>
-      <c r="L405" t="s">
-        <v>19</v>
+      <c r="L405">
+        <v>2</v>
       </c>
       <c r="M405" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:13">
@@ -17085,11 +17076,11 @@
       <c r="K406" t="s">
         <v>16</v>
       </c>
-      <c r="L406" t="s">
-        <v>19</v>
+      <c r="L406">
+        <v>2</v>
       </c>
       <c r="M406" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407" spans="1:13">
@@ -17126,11 +17117,11 @@
       <c r="K407" t="s">
         <v>17</v>
       </c>
-      <c r="L407" t="s">
-        <v>18</v>
+      <c r="L407">
+        <v>1</v>
       </c>
       <c r="M407" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -17167,11 +17158,11 @@
       <c r="K408" t="s">
         <v>17</v>
       </c>
-      <c r="L408" t="s">
-        <v>20</v>
+      <c r="L408">
+        <v>3</v>
       </c>
       <c r="M408" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -17208,11 +17199,11 @@
       <c r="K409" t="s">
         <v>17</v>
       </c>
-      <c r="L409" t="s">
-        <v>19</v>
+      <c r="L409">
+        <v>2</v>
       </c>
       <c r="M409" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -17249,11 +17240,11 @@
       <c r="K410" t="s">
         <v>16</v>
       </c>
-      <c r="L410" t="s">
-        <v>19</v>
+      <c r="L410">
+        <v>2</v>
       </c>
       <c r="M410" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -17290,11 +17281,11 @@
       <c r="K411" t="s">
         <v>17</v>
       </c>
-      <c r="L411" t="s">
-        <v>20</v>
+      <c r="L411">
+        <v>3</v>
       </c>
       <c r="M411" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -17331,11 +17322,11 @@
       <c r="K412" t="s">
         <v>16</v>
       </c>
-      <c r="L412" t="s">
+      <c r="L412">
+        <v>1</v>
+      </c>
+      <c r="M412" t="s">
         <v>18</v>
-      </c>
-      <c r="M412" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="413" spans="1:13">
@@ -17372,11 +17363,11 @@
       <c r="K413" t="s">
         <v>17</v>
       </c>
-      <c r="L413" t="s">
-        <v>19</v>
+      <c r="L413">
+        <v>2</v>
       </c>
       <c r="M413" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -17413,11 +17404,11 @@
       <c r="K414" t="s">
         <v>17</v>
       </c>
-      <c r="L414" t="s">
+      <c r="L414">
+        <v>1</v>
+      </c>
+      <c r="M414" t="s">
         <v>18</v>
-      </c>
-      <c r="M414" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -17454,11 +17445,11 @@
       <c r="K415" t="s">
         <v>17</v>
       </c>
-      <c r="L415" t="s">
-        <v>19</v>
+      <c r="L415">
+        <v>2</v>
       </c>
       <c r="M415" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -17495,11 +17486,11 @@
       <c r="K416" t="s">
         <v>16</v>
       </c>
-      <c r="L416" t="s">
-        <v>20</v>
+      <c r="L416">
+        <v>3</v>
       </c>
       <c r="M416" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -17536,11 +17527,11 @@
       <c r="K417" t="s">
         <v>17</v>
       </c>
-      <c r="L417" t="s">
-        <v>19</v>
+      <c r="L417">
+        <v>2</v>
       </c>
       <c r="M417" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:13">
@@ -17577,11 +17568,11 @@
       <c r="K418" t="s">
         <v>16</v>
       </c>
-      <c r="L418" t="s">
-        <v>18</v>
+      <c r="L418">
+        <v>1</v>
       </c>
       <c r="M418" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="419" spans="1:13">
@@ -17618,11 +17609,11 @@
       <c r="K419" t="s">
         <v>17</v>
       </c>
-      <c r="L419" t="s">
-        <v>20</v>
+      <c r="L419">
+        <v>3</v>
       </c>
       <c r="M419" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420" spans="1:13">
@@ -17659,11 +17650,11 @@
       <c r="K420" t="s">
         <v>17</v>
       </c>
-      <c r="L420" t="s">
-        <v>19</v>
+      <c r="L420">
+        <v>2</v>
       </c>
       <c r="M420" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421" spans="1:13">
@@ -17700,11 +17691,11 @@
       <c r="K421" t="s">
         <v>16</v>
       </c>
-      <c r="L421" t="s">
-        <v>19</v>
+      <c r="L421">
+        <v>2</v>
       </c>
       <c r="M421" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="1:13">
@@ -17741,11 +17732,11 @@
       <c r="K422" t="s">
         <v>17</v>
       </c>
-      <c r="L422" t="s">
-        <v>20</v>
+      <c r="L422">
+        <v>3</v>
       </c>
       <c r="M422" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="423" spans="1:13">
@@ -17782,11 +17773,11 @@
       <c r="K423" t="s">
         <v>17</v>
       </c>
-      <c r="L423" t="s">
-        <v>20</v>
+      <c r="L423">
+        <v>3</v>
       </c>
       <c r="M423" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" spans="1:13">
@@ -17823,11 +17814,11 @@
       <c r="K424" t="s">
         <v>17</v>
       </c>
-      <c r="L424" t="s">
-        <v>19</v>
+      <c r="L424">
+        <v>2</v>
       </c>
       <c r="M424" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="425" spans="1:13">
@@ -17864,11 +17855,11 @@
       <c r="K425" t="s">
         <v>17</v>
       </c>
-      <c r="L425" t="s">
-        <v>19</v>
+      <c r="L425">
+        <v>2</v>
       </c>
       <c r="M425" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426" spans="1:13">
@@ -17905,11 +17896,11 @@
       <c r="K426" t="s">
         <v>17</v>
       </c>
-      <c r="L426" t="s">
-        <v>20</v>
+      <c r="L426">
+        <v>3</v>
       </c>
       <c r="M426" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="427" spans="1:13">
@@ -17946,11 +17937,11 @@
       <c r="K427" t="s">
         <v>16</v>
       </c>
-      <c r="L427" t="s">
-        <v>20</v>
+      <c r="L427">
+        <v>3</v>
       </c>
       <c r="M427" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428" spans="1:13">
@@ -17987,11 +17978,11 @@
       <c r="K428" t="s">
         <v>17</v>
       </c>
-      <c r="L428" t="s">
-        <v>19</v>
+      <c r="L428">
+        <v>2</v>
       </c>
       <c r="M428" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="429" spans="1:13">
@@ -18028,11 +18019,11 @@
       <c r="K429" t="s">
         <v>17</v>
       </c>
-      <c r="L429" t="s">
+      <c r="L429">
+        <v>1</v>
+      </c>
+      <c r="M429" t="s">
         <v>18</v>
-      </c>
-      <c r="M429" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="430" spans="1:13">
@@ -18069,11 +18060,11 @@
       <c r="K430" t="s">
         <v>16</v>
       </c>
-      <c r="L430" t="s">
-        <v>19</v>
+      <c r="L430">
+        <v>2</v>
       </c>
       <c r="M430" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="431" spans="1:13">
@@ -18110,11 +18101,11 @@
       <c r="K431" t="s">
         <v>16</v>
       </c>
-      <c r="L431" t="s">
-        <v>18</v>
+      <c r="L431">
+        <v>1</v>
       </c>
       <c r="M431" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="432" spans="1:13">
@@ -18151,11 +18142,11 @@
       <c r="K432" t="s">
         <v>17</v>
       </c>
-      <c r="L432" t="s">
-        <v>20</v>
+      <c r="L432">
+        <v>3</v>
       </c>
       <c r="M432" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="433" spans="1:13">
@@ -18192,11 +18183,11 @@
       <c r="K433" t="s">
         <v>16</v>
       </c>
-      <c r="L433" t="s">
-        <v>20</v>
+      <c r="L433">
+        <v>3</v>
       </c>
       <c r="M433" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434" spans="1:13">
@@ -18233,11 +18224,11 @@
       <c r="K434" t="s">
         <v>17</v>
       </c>
-      <c r="L434" t="s">
-        <v>19</v>
+      <c r="L434">
+        <v>2</v>
       </c>
       <c r="M434" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="435" spans="1:13">
@@ -18274,11 +18265,11 @@
       <c r="K435" t="s">
         <v>17</v>
       </c>
-      <c r="L435" t="s">
-        <v>20</v>
+      <c r="L435">
+        <v>3</v>
       </c>
       <c r="M435" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="436" spans="1:13">
@@ -18315,11 +18306,11 @@
       <c r="K436" t="s">
         <v>16</v>
       </c>
-      <c r="L436" t="s">
-        <v>18</v>
+      <c r="L436">
+        <v>1</v>
       </c>
       <c r="M436" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" spans="1:13">
@@ -18356,11 +18347,11 @@
       <c r="K437" t="s">
         <v>17</v>
       </c>
-      <c r="L437" t="s">
-        <v>19</v>
+      <c r="L437">
+        <v>2</v>
       </c>
       <c r="M437" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" spans="1:13">
@@ -18397,11 +18388,11 @@
       <c r="K438" t="s">
         <v>16</v>
       </c>
-      <c r="L438" t="s">
-        <v>20</v>
+      <c r="L438">
+        <v>3</v>
       </c>
       <c r="M438" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" spans="1:13">
@@ -18438,11 +18429,11 @@
       <c r="K439" t="s">
         <v>17</v>
       </c>
-      <c r="L439" t="s">
-        <v>20</v>
+      <c r="L439">
+        <v>3</v>
       </c>
       <c r="M439" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" spans="1:13">
@@ -18479,11 +18470,11 @@
       <c r="K440" t="s">
         <v>17</v>
       </c>
-      <c r="L440" t="s">
-        <v>19</v>
+      <c r="L440">
+        <v>2</v>
       </c>
       <c r="M440" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="441" spans="1:13">
@@ -18520,11 +18511,11 @@
       <c r="K441" t="s">
         <v>17</v>
       </c>
-      <c r="L441" t="s">
-        <v>19</v>
+      <c r="L441">
+        <v>2</v>
       </c>
       <c r="M441" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="442" spans="1:13">
@@ -18561,11 +18552,11 @@
       <c r="K442" t="s">
         <v>16</v>
       </c>
-      <c r="L442" t="s">
-        <v>20</v>
+      <c r="L442">
+        <v>3</v>
       </c>
       <c r="M442" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="443" spans="1:13">
@@ -18602,11 +18593,11 @@
       <c r="K443" t="s">
         <v>17</v>
       </c>
-      <c r="L443" t="s">
-        <v>19</v>
+      <c r="L443">
+        <v>2</v>
       </c>
       <c r="M443" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="444" spans="1:13">
@@ -18643,11 +18634,11 @@
       <c r="K444" t="s">
         <v>17</v>
       </c>
-      <c r="L444" t="s">
-        <v>20</v>
+      <c r="L444">
+        <v>3</v>
       </c>
       <c r="M444" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="445" spans="1:13">
@@ -18684,11 +18675,11 @@
       <c r="K445" t="s">
         <v>17</v>
       </c>
-      <c r="L445" t="s">
+      <c r="L445">
+        <v>1</v>
+      </c>
+      <c r="M445" t="s">
         <v>18</v>
-      </c>
-      <c r="M445" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="446" spans="1:13">
@@ -18725,11 +18716,11 @@
       <c r="K446" t="s">
         <v>17</v>
       </c>
-      <c r="L446" t="s">
-        <v>18</v>
+      <c r="L446">
+        <v>1</v>
       </c>
       <c r="M446" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="447" spans="1:13">
@@ -18766,11 +18757,11 @@
       <c r="K447" t="s">
         <v>17</v>
       </c>
-      <c r="L447" t="s">
-        <v>20</v>
+      <c r="L447">
+        <v>3</v>
       </c>
       <c r="M447" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448" spans="1:13">
@@ -18807,11 +18798,11 @@
       <c r="K448" t="s">
         <v>17</v>
       </c>
-      <c r="L448" t="s">
-        <v>19</v>
+      <c r="L448">
+        <v>2</v>
       </c>
       <c r="M448" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="449" spans="1:13">
@@ -18848,11 +18839,11 @@
       <c r="K449" t="s">
         <v>17</v>
       </c>
-      <c r="L449" t="s">
-        <v>18</v>
+      <c r="L449">
+        <v>1</v>
       </c>
       <c r="M449" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450" spans="1:13">
@@ -18889,11 +18880,11 @@
       <c r="K450" t="s">
         <v>17</v>
       </c>
-      <c r="L450" t="s">
-        <v>19</v>
+      <c r="L450">
+        <v>2</v>
       </c>
       <c r="M450" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="451" spans="1:13">
@@ -18930,11 +18921,11 @@
       <c r="K451" t="s">
         <v>17</v>
       </c>
-      <c r="L451" t="s">
-        <v>20</v>
+      <c r="L451">
+        <v>3</v>
       </c>
       <c r="M451" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="452" spans="1:13">
@@ -18971,11 +18962,11 @@
       <c r="K452" t="s">
         <v>17</v>
       </c>
-      <c r="L452" t="s">
-        <v>19</v>
+      <c r="L452">
+        <v>2</v>
       </c>
       <c r="M452" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="453" spans="1:13">
@@ -19012,11 +19003,11 @@
       <c r="K453" t="s">
         <v>16</v>
       </c>
-      <c r="L453" t="s">
-        <v>19</v>
+      <c r="L453">
+        <v>2</v>
       </c>
       <c r="M453" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454" spans="1:13">
@@ -19053,11 +19044,11 @@
       <c r="K454" t="s">
         <v>17</v>
       </c>
-      <c r="L454" t="s">
-        <v>19</v>
+      <c r="L454">
+        <v>2</v>
       </c>
       <c r="M454" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="455" spans="1:13">
@@ -19094,11 +19085,11 @@
       <c r="K455" t="s">
         <v>17</v>
       </c>
-      <c r="L455" t="s">
-        <v>20</v>
+      <c r="L455">
+        <v>3</v>
       </c>
       <c r="M455" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="456" spans="1:13">
@@ -19135,11 +19126,11 @@
       <c r="K456" t="s">
         <v>17</v>
       </c>
-      <c r="L456" t="s">
-        <v>19</v>
+      <c r="L456">
+        <v>2</v>
       </c>
       <c r="M456" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="457" spans="1:13">
@@ -19176,11 +19167,11 @@
       <c r="K457" t="s">
         <v>17</v>
       </c>
-      <c r="L457" t="s">
-        <v>19</v>
+      <c r="L457">
+        <v>2</v>
       </c>
       <c r="M457" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="458" spans="1:13">
@@ -19217,11 +19208,11 @@
       <c r="K458" t="s">
         <v>17</v>
       </c>
-      <c r="L458" t="s">
-        <v>20</v>
+      <c r="L458">
+        <v>3</v>
       </c>
       <c r="M458" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="459" spans="1:13">
@@ -19258,11 +19249,11 @@
       <c r="K459" t="s">
         <v>17</v>
       </c>
-      <c r="L459" t="s">
-        <v>19</v>
+      <c r="L459">
+        <v>2</v>
       </c>
       <c r="M459" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="460" spans="1:13">
@@ -19299,11 +19290,11 @@
       <c r="K460" t="s">
         <v>16</v>
       </c>
-      <c r="L460" t="s">
-        <v>19</v>
+      <c r="L460">
+        <v>2</v>
       </c>
       <c r="M460" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="461" spans="1:13">
@@ -19340,11 +19331,11 @@
       <c r="K461" t="s">
         <v>17</v>
       </c>
-      <c r="L461" t="s">
-        <v>19</v>
+      <c r="L461">
+        <v>2</v>
       </c>
       <c r="M461" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" spans="1:13">
@@ -19381,11 +19372,11 @@
       <c r="K462" t="s">
         <v>17</v>
       </c>
-      <c r="L462" t="s">
-        <v>19</v>
+      <c r="L462">
+        <v>2</v>
       </c>
       <c r="M462" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="463" spans="1:13">
@@ -19422,11 +19413,11 @@
       <c r="K463" t="s">
         <v>16</v>
       </c>
-      <c r="L463" t="s">
-        <v>20</v>
+      <c r="L463">
+        <v>3</v>
       </c>
       <c r="M463" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="464" spans="1:13">
@@ -19463,11 +19454,11 @@
       <c r="K464" t="s">
         <v>17</v>
       </c>
-      <c r="L464" t="s">
-        <v>18</v>
+      <c r="L464">
+        <v>1</v>
       </c>
       <c r="M464" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="465" spans="1:13">
@@ -19504,11 +19495,11 @@
       <c r="K465" t="s">
         <v>16</v>
       </c>
-      <c r="L465" t="s">
-        <v>20</v>
+      <c r="L465">
+        <v>3</v>
       </c>
       <c r="M465" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="466" spans="1:13">
@@ -19545,11 +19536,11 @@
       <c r="K466" t="s">
         <v>17</v>
       </c>
-      <c r="L466" t="s">
-        <v>20</v>
+      <c r="L466">
+        <v>3</v>
       </c>
       <c r="M466" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="467" spans="1:13">
@@ -19586,11 +19577,11 @@
       <c r="K467" t="s">
         <v>17</v>
       </c>
-      <c r="L467" t="s">
-        <v>19</v>
+      <c r="L467">
+        <v>2</v>
       </c>
       <c r="M467" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="468" spans="1:13">
@@ -19627,11 +19618,11 @@
       <c r="K468" t="s">
         <v>17</v>
       </c>
-      <c r="L468" t="s">
-        <v>20</v>
+      <c r="L468">
+        <v>3</v>
       </c>
       <c r="M468" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" spans="1:13">
@@ -19668,11 +19659,11 @@
       <c r="K469" t="s">
         <v>17</v>
       </c>
-      <c r="L469" t="s">
-        <v>20</v>
+      <c r="L469">
+        <v>3</v>
       </c>
       <c r="M469" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="470" spans="1:13">
@@ -19709,11 +19700,11 @@
       <c r="K470" t="s">
         <v>17</v>
       </c>
-      <c r="L470" t="s">
-        <v>19</v>
+      <c r="L470">
+        <v>2</v>
       </c>
       <c r="M470" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="471" spans="1:13">
@@ -19750,11 +19741,11 @@
       <c r="K471" t="s">
         <v>16</v>
       </c>
-      <c r="L471" t="s">
-        <v>19</v>
+      <c r="L471">
+        <v>2</v>
       </c>
       <c r="M471" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472" spans="1:13">
@@ -19791,11 +19782,11 @@
       <c r="K472" t="s">
         <v>17</v>
       </c>
-      <c r="L472" t="s">
-        <v>19</v>
+      <c r="L472">
+        <v>2</v>
       </c>
       <c r="M472" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="473" spans="1:13">
@@ -19832,11 +19823,11 @@
       <c r="K473" t="s">
         <v>17</v>
       </c>
-      <c r="L473" t="s">
-        <v>18</v>
+      <c r="L473">
+        <v>1</v>
       </c>
       <c r="M473" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="474" spans="1:13">
@@ -19873,11 +19864,11 @@
       <c r="K474" t="s">
         <v>16</v>
       </c>
-      <c r="L474" t="s">
-        <v>19</v>
+      <c r="L474">
+        <v>2</v>
       </c>
       <c r="M474" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="475" spans="1:13">
@@ -19914,11 +19905,11 @@
       <c r="K475" t="s">
         <v>17</v>
       </c>
-      <c r="L475" t="s">
-        <v>20</v>
+      <c r="L475">
+        <v>3</v>
       </c>
       <c r="M475" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="476" spans="1:13">
@@ -19955,11 +19946,11 @@
       <c r="K476" t="s">
         <v>17</v>
       </c>
-      <c r="L476" t="s">
-        <v>19</v>
+      <c r="L476">
+        <v>2</v>
       </c>
       <c r="M476" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="477" spans="1:13">
@@ -19996,11 +19987,11 @@
       <c r="K477" t="s">
         <v>17</v>
       </c>
-      <c r="L477" t="s">
-        <v>20</v>
+      <c r="L477">
+        <v>3</v>
       </c>
       <c r="M477" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="478" spans="1:13">
@@ -20037,11 +20028,11 @@
       <c r="K478" t="s">
         <v>16</v>
       </c>
-      <c r="L478" t="s">
-        <v>19</v>
+      <c r="L478">
+        <v>2</v>
       </c>
       <c r="M478" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479" spans="1:13">
@@ -20078,11 +20069,11 @@
       <c r="K479" t="s">
         <v>17</v>
       </c>
-      <c r="L479" t="s">
-        <v>20</v>
+      <c r="L479">
+        <v>3</v>
       </c>
       <c r="M479" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="480" spans="1:13">
@@ -20119,11 +20110,11 @@
       <c r="K480" t="s">
         <v>17</v>
       </c>
-      <c r="L480" t="s">
-        <v>18</v>
+      <c r="L480">
+        <v>1</v>
       </c>
       <c r="M480" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="481" spans="1:13">
@@ -20160,11 +20151,11 @@
       <c r="K481" t="s">
         <v>16</v>
       </c>
-      <c r="L481" t="s">
+      <c r="L481">
+        <v>1</v>
+      </c>
+      <c r="M481" t="s">
         <v>18</v>
-      </c>
-      <c r="M481" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:13">
@@ -20201,11 +20192,11 @@
       <c r="K482" t="s">
         <v>16</v>
       </c>
-      <c r="L482" t="s">
-        <v>20</v>
+      <c r="L482">
+        <v>3</v>
       </c>
       <c r="M482" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="483" spans="1:13">
@@ -20242,11 +20233,11 @@
       <c r="K483" t="s">
         <v>17</v>
       </c>
-      <c r="L483" t="s">
-        <v>19</v>
+      <c r="L483">
+        <v>2</v>
       </c>
       <c r="M483" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="484" spans="1:13">
@@ -20283,11 +20274,11 @@
       <c r="K484" t="s">
         <v>16</v>
       </c>
-      <c r="L484" t="s">
-        <v>18</v>
+      <c r="L484">
+        <v>1</v>
       </c>
       <c r="M484" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="485" spans="1:13">
@@ -20324,11 +20315,11 @@
       <c r="K485" t="s">
         <v>17</v>
       </c>
-      <c r="L485" t="s">
-        <v>19</v>
+      <c r="L485">
+        <v>2</v>
       </c>
       <c r="M485" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="486" spans="1:13">
@@ -20365,11 +20356,11 @@
       <c r="K486" t="s">
         <v>17</v>
       </c>
-      <c r="L486" t="s">
-        <v>19</v>
+      <c r="L486">
+        <v>2</v>
       </c>
       <c r="M486" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="487" spans="1:13">
@@ -20406,11 +20397,11 @@
       <c r="K487" t="s">
         <v>17</v>
       </c>
-      <c r="L487" t="s">
-        <v>19</v>
+      <c r="L487">
+        <v>2</v>
       </c>
       <c r="M487" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="488" spans="1:13">
@@ -20447,11 +20438,11 @@
       <c r="K488" t="s">
         <v>17</v>
       </c>
-      <c r="L488" t="s">
-        <v>20</v>
+      <c r="L488">
+        <v>3</v>
       </c>
       <c r="M488" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="489" spans="1:13">
@@ -20488,11 +20479,11 @@
       <c r="K489" t="s">
         <v>17</v>
       </c>
-      <c r="L489" t="s">
-        <v>19</v>
+      <c r="L489">
+        <v>2</v>
       </c>
       <c r="M489" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="490" spans="1:13">
@@ -20529,11 +20520,11 @@
       <c r="K490" t="s">
         <v>16</v>
       </c>
-      <c r="L490" t="s">
-        <v>20</v>
+      <c r="L490">
+        <v>3</v>
       </c>
       <c r="M490" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="491" spans="1:13">
@@ -20570,11 +20561,11 @@
       <c r="K491" t="s">
         <v>17</v>
       </c>
-      <c r="L491" t="s">
-        <v>18</v>
+      <c r="L491">
+        <v>1</v>
       </c>
       <c r="M491" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="492" spans="1:13">
@@ -20611,11 +20602,11 @@
       <c r="K492" t="s">
         <v>16</v>
       </c>
-      <c r="L492" t="s">
-        <v>20</v>
+      <c r="L492">
+        <v>3</v>
       </c>
       <c r="M492" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="493" spans="1:13">
@@ -20652,11 +20643,11 @@
       <c r="K493" t="s">
         <v>16</v>
       </c>
-      <c r="L493" t="s">
+      <c r="L493">
+        <v>1</v>
+      </c>
+      <c r="M493" t="s">
         <v>18</v>
-      </c>
-      <c r="M493" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="494" spans="1:13">
@@ -20693,11 +20684,11 @@
       <c r="K494" t="s">
         <v>17</v>
       </c>
-      <c r="L494" t="s">
-        <v>18</v>
+      <c r="L494">
+        <v>1</v>
       </c>
       <c r="M494" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="495" spans="1:13">
@@ -20734,11 +20725,11 @@
       <c r="K495" t="s">
         <v>16</v>
       </c>
-      <c r="L495" t="s">
+      <c r="L495">
+        <v>1</v>
+      </c>
+      <c r="M495" t="s">
         <v>18</v>
-      </c>
-      <c r="M495" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="496" spans="1:13">
@@ -20775,11 +20766,11 @@
       <c r="K496" t="s">
         <v>17</v>
       </c>
-      <c r="L496" t="s">
-        <v>19</v>
+      <c r="L496">
+        <v>2</v>
       </c>
       <c r="M496" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497" spans="1:13">
@@ -20816,11 +20807,11 @@
       <c r="K497" t="s">
         <v>17</v>
       </c>
-      <c r="L497" t="s">
-        <v>19</v>
+      <c r="L497">
+        <v>2</v>
       </c>
       <c r="M497" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="498" spans="1:13">
@@ -20857,11 +20848,11 @@
       <c r="K498" t="s">
         <v>17</v>
       </c>
-      <c r="L498" t="s">
-        <v>18</v>
+      <c r="L498">
+        <v>1</v>
       </c>
       <c r="M498" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="499" spans="1:13">
@@ -20898,11 +20889,11 @@
       <c r="K499" t="s">
         <v>16</v>
       </c>
-      <c r="L499" t="s">
-        <v>19</v>
+      <c r="L499">
+        <v>2</v>
       </c>
       <c r="M499" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="500" spans="1:13">
@@ -20939,11 +20930,11 @@
       <c r="K500" t="s">
         <v>17</v>
       </c>
-      <c r="L500" t="s">
-        <v>18</v>
+      <c r="L500">
+        <v>1</v>
       </c>
       <c r="M500" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="501" spans="1:13">
@@ -20980,11 +20971,11 @@
       <c r="K501" t="s">
         <v>17</v>
       </c>
-      <c r="L501" t="s">
-        <v>20</v>
+      <c r="L501">
+        <v>3</v>
       </c>
       <c r="M501" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="502" spans="1:13">
@@ -21021,11 +21012,11 @@
       <c r="K502" t="s">
         <v>17</v>
       </c>
-      <c r="L502" t="s">
-        <v>18</v>
+      <c r="L502">
+        <v>1</v>
       </c>
       <c r="M502" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="503" spans="1:13">
@@ -21062,11 +21053,11 @@
       <c r="K503" t="s">
         <v>17</v>
       </c>
-      <c r="L503" t="s">
-        <v>19</v>
+      <c r="L503">
+        <v>2</v>
       </c>
       <c r="M503" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="504" spans="1:13">
@@ -21103,11 +21094,11 @@
       <c r="K504" t="s">
         <v>17</v>
       </c>
-      <c r="L504" t="s">
+      <c r="L504">
+        <v>1</v>
+      </c>
+      <c r="M504" t="s">
         <v>18</v>
-      </c>
-      <c r="M504" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="505" spans="1:13">
@@ -21144,11 +21135,11 @@
       <c r="K505" t="s">
         <v>17</v>
       </c>
-      <c r="L505" t="s">
-        <v>19</v>
+      <c r="L505">
+        <v>2</v>
       </c>
       <c r="M505" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="506" spans="1:13">
@@ -21185,11 +21176,11 @@
       <c r="K506" t="s">
         <v>16</v>
       </c>
-      <c r="L506" t="s">
-        <v>20</v>
+      <c r="L506">
+        <v>3</v>
       </c>
       <c r="M506" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" spans="1:13">
@@ -21226,11 +21217,11 @@
       <c r="K507" t="s">
         <v>16</v>
       </c>
-      <c r="L507" t="s">
-        <v>20</v>
+      <c r="L507">
+        <v>3</v>
       </c>
       <c r="M507" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="508" spans="1:13">
@@ -21267,11 +21258,11 @@
       <c r="K508" t="s">
         <v>17</v>
       </c>
-      <c r="L508" t="s">
-        <v>20</v>
+      <c r="L508">
+        <v>3</v>
       </c>
       <c r="M508" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="509" spans="1:13">
@@ -21308,11 +21299,11 @@
       <c r="K509" t="s">
         <v>17</v>
       </c>
-      <c r="L509" t="s">
-        <v>18</v>
+      <c r="L509">
+        <v>1</v>
       </c>
       <c r="M509" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="510" spans="1:13">
@@ -21349,11 +21340,11 @@
       <c r="K510" t="s">
         <v>17</v>
       </c>
-      <c r="L510" t="s">
-        <v>19</v>
+      <c r="L510">
+        <v>2</v>
       </c>
       <c r="M510" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="511" spans="1:13">
@@ -21390,11 +21381,11 @@
       <c r="K511" t="s">
         <v>17</v>
       </c>
-      <c r="L511" t="s">
-        <v>19</v>
+      <c r="L511">
+        <v>2</v>
       </c>
       <c r="M511" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="512" spans="1:13">
@@ -21431,11 +21422,11 @@
       <c r="K512" t="s">
         <v>16</v>
       </c>
-      <c r="L512" t="s">
-        <v>19</v>
+      <c r="L512">
+        <v>2</v>
       </c>
       <c r="M512" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="513" spans="1:13">
@@ -21472,11 +21463,11 @@
       <c r="K513" t="s">
         <v>17</v>
       </c>
-      <c r="L513" t="s">
-        <v>19</v>
+      <c r="L513">
+        <v>2</v>
       </c>
       <c r="M513" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514" spans="1:13">
@@ -21513,11 +21504,11 @@
       <c r="K514" t="s">
         <v>17</v>
       </c>
-      <c r="L514" t="s">
-        <v>19</v>
+      <c r="L514">
+        <v>2</v>
       </c>
       <c r="M514" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="515" spans="1:13">
@@ -21554,11 +21545,11 @@
       <c r="K515" t="s">
         <v>17</v>
       </c>
-      <c r="L515" t="s">
-        <v>20</v>
+      <c r="L515">
+        <v>3</v>
       </c>
       <c r="M515" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="516" spans="1:13">
@@ -21595,11 +21586,11 @@
       <c r="K516" t="s">
         <v>17</v>
       </c>
-      <c r="L516" t="s">
-        <v>20</v>
+      <c r="L516">
+        <v>3</v>
       </c>
       <c r="M516" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="517" spans="1:13">
@@ -21636,11 +21627,11 @@
       <c r="K517" t="s">
         <v>17</v>
       </c>
-      <c r="L517" t="s">
-        <v>20</v>
+      <c r="L517">
+        <v>3</v>
       </c>
       <c r="M517" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="518" spans="1:13">
@@ -21677,11 +21668,11 @@
       <c r="K518" t="s">
         <v>16</v>
       </c>
-      <c r="L518" t="s">
-        <v>19</v>
+      <c r="L518">
+        <v>2</v>
       </c>
       <c r="M518" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519" spans="1:13">
@@ -21718,11 +21709,11 @@
       <c r="K519" t="s">
         <v>17</v>
       </c>
-      <c r="L519" t="s">
-        <v>20</v>
+      <c r="L519">
+        <v>3</v>
       </c>
       <c r="M519" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="520" spans="1:13">
@@ -21759,11 +21750,11 @@
       <c r="K520" t="s">
         <v>17</v>
       </c>
-      <c r="L520" t="s">
-        <v>18</v>
+      <c r="L520">
+        <v>1</v>
       </c>
       <c r="M520" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="521" spans="1:13">
@@ -21800,11 +21791,11 @@
       <c r="K521" t="s">
         <v>17</v>
       </c>
-      <c r="L521" t="s">
-        <v>20</v>
+      <c r="L521">
+        <v>3</v>
       </c>
       <c r="M521" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="522" spans="1:13">
@@ -21841,11 +21832,11 @@
       <c r="K522" t="s">
         <v>17</v>
       </c>
-      <c r="L522" t="s">
-        <v>18</v>
+      <c r="L522">
+        <v>1</v>
       </c>
       <c r="M522" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="523" spans="1:13">
@@ -21882,11 +21873,11 @@
       <c r="K523" t="s">
         <v>17</v>
       </c>
-      <c r="L523" t="s">
-        <v>20</v>
+      <c r="L523">
+        <v>3</v>
       </c>
       <c r="M523" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="524" spans="1:13">
@@ -21923,11 +21914,11 @@
       <c r="K524" t="s">
         <v>17</v>
       </c>
-      <c r="L524" t="s">
-        <v>19</v>
+      <c r="L524">
+        <v>2</v>
       </c>
       <c r="M524" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="525" spans="1:13">
@@ -21964,11 +21955,11 @@
       <c r="K525" t="s">
         <v>17</v>
       </c>
-      <c r="L525" t="s">
-        <v>20</v>
+      <c r="L525">
+        <v>3</v>
       </c>
       <c r="M525" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -22005,11 +21996,11 @@
       <c r="K526" t="s">
         <v>17</v>
       </c>
-      <c r="L526" t="s">
-        <v>20</v>
+      <c r="L526">
+        <v>3</v>
       </c>
       <c r="M526" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="527" spans="1:13">
@@ -22046,11 +22037,11 @@
       <c r="K527" t="s">
         <v>17</v>
       </c>
-      <c r="L527" t="s">
-        <v>20</v>
+      <c r="L527">
+        <v>3</v>
       </c>
       <c r="M527" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="528" spans="1:13">
@@ -22087,11 +22078,11 @@
       <c r="K528" t="s">
         <v>17</v>
       </c>
-      <c r="L528" t="s">
-        <v>20</v>
+      <c r="L528">
+        <v>3</v>
       </c>
       <c r="M528" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="529" spans="1:13">
@@ -22128,11 +22119,11 @@
       <c r="K529" t="s">
         <v>17</v>
       </c>
-      <c r="L529" t="s">
-        <v>18</v>
+      <c r="L529">
+        <v>1</v>
       </c>
       <c r="M529" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -22169,11 +22160,11 @@
       <c r="K530" t="s">
         <v>16</v>
       </c>
-      <c r="L530" t="s">
-        <v>19</v>
+      <c r="L530">
+        <v>2</v>
       </c>
       <c r="M530" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
